--- a/Write/作图-2019-positive/correlation-作图20190716/箱图20190716.xlsx
+++ b/Write/作图-2019-positive/correlation-作图20190716/箱图20190716.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D487D0-6B78-462A-8578-CA588E5B467C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3617E2E1-E283-49E3-95CB-27FE8EE62182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="five types three correlations" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="three correlations" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'five types three correlations'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'five types three correlations'!$A$2:$A$125</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'five types three correlations'!$H$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'five types three correlations'!$H$2:$H$125</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'five types three correlations'!$P$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'five types three correlations'!$P$2:$P$125</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'five types three correlations'!$Q$1</definedName>
@@ -25,18 +25,18 @@
     <definedName name="_xlchart.v1.17" hidden="1">'five types three correlations'!$S$2:$S$125</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">'five types three correlations'!$T$1</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">'five types three correlations'!$T$2:$T$125</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'five types three correlations'!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'five types three correlations'!$H$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'five types three correlations'!$H$2:$H$125</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'five types three correlations'!$I$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'five types three correlations'!$I$2:$I$125</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'five types three correlations'!$J$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'five types three correlations'!$J$2:$J$125</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'five types three correlations'!$K$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'five types three correlations'!$K$2:$K$125</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'five types three correlations'!$L$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'five types three correlations'!$L$2:$L$125</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'five types three correlations'!$B$2:$B$125</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'five types three correlations'!$I$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'five types three correlations'!$A$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'five types three correlations'!$A$2:$A$125</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'five types three correlations'!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'five types three correlations'!$B$2:$B$125</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'five types three correlations'!$C$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'five types three correlations'!$C$2:$C$125</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'five types three correlations'!$D$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'five types three correlations'!$D$2:$D$125</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'five types three correlations'!$E$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'five types three correlations'!$E$2:$E$125</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'five types three correlations'!$I$2:$I$125</definedName>
     <definedName name="_xlchart.v1.30" hidden="1">'five types correlations'!$AA$1</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">'five types correlations'!$AA$2:$AA$125</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">'five types correlations'!$AB$1</definedName>
@@ -47,28 +47,28 @@
     <definedName name="_xlchart.v1.37" hidden="1">'five types correlations'!$AD$2:$AD$125</definedName>
     <definedName name="_xlchart.v1.38" hidden="1">'five types correlations'!$Z$1</definedName>
     <definedName name="_xlchart.v1.39" hidden="1">'five types correlations'!$Z$2:$Z$125</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'five types three correlations'!$C$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'five types correlations'!$AA$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'five types correlations'!$AA$2:$AA$125</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'five types correlations'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'five types correlations'!$AB$2:$AB$125</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'five types correlations'!$AC$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'five types correlations'!$AC$2:$AC$125</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'five types correlations'!$AD$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'five types correlations'!$AD$2:$AD$125</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'five types correlations'!$Z$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'five types correlations'!$Z$2:$Z$125</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'five types three correlations'!$C$2:$C$125</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'three correlations'!$F$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'three correlations'!$F$2:$F$126</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'three correlations'!$G$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'three correlations'!$G$2:$G$126</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'three correlations'!$H$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'three correlations'!$H$2:$H$126</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'five types three correlations'!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'five types three correlations'!$D$2:$D$125</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'five types three correlations'!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'five types three correlations'!$E$2:$E$125</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'five types three correlations'!$J$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'three correlations'!$F$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'three correlations'!$F$2:$F$126</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'three correlations'!$G$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'three correlations'!$G$2:$G$126</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'three correlations'!$H$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'three correlations'!$H$2:$H$126</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'five types correlations'!$AA$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'five types correlations'!$AA$2:$AA$125</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'five types correlations'!$AB$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'five types correlations'!$AB$2:$AB$125</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'five types three correlations'!$J$2:$J$125</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'five types correlations'!$AC$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'five types correlations'!$AC$2:$AC$125</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'five types correlations'!$AD$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'five types correlations'!$AD$2:$AD$125</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'five types correlations'!$Z$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'five types correlations'!$Z$2:$Z$125</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'five types three correlations'!$K$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'five types three correlations'!$K$2:$K$125</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'five types three correlations'!$L$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'five types three correlations'!$L$2:$L$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -332,27 +332,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -363,7 +363,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CEE54885-8FDB-49BD-A700-8F15F6999D93}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>corPost0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -376,7 +376,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FB39580F-179F-4278-AC0A-4F3C0C74C361}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>corPost1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -389,7 +389,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{59530E73-2E40-481B-995F-370EC6406513}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>corPost2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -402,7 +402,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{54BE9A14-3E42-4F55-86D7-4E7D66E0E68D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>corPost3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -415,7 +415,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F9BCD171-B9E3-4BBE-BF09-7D8F11D95C0D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>corPost4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -446,27 +446,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -477,7 +477,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{277906C7-32FA-4701-BC27-7A09B969950B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>corStress0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -490,7 +490,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{541A85F2-1125-49F2-919D-B3FCA323C82E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>corStress1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -503,7 +503,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FD39C202-C5A5-4662-95AA-F61AC9E4F3A3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>corStress2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -516,7 +516,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{59A5F116-C53A-43EB-8D95-B4EAA845C8F8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>corStress3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -529,7 +529,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{96568F99-B635-4E32-AB83-00D95644289F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>corStress4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -942,17 +942,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -971,7 +971,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FF046A7E-F4A4-4AEE-B749-93279147E932}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>posting behavior</cx:v>
             </cx:txData>
           </cx:tx>
@@ -994,7 +994,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{309CF04B-501C-47CF-8F67-2E91C282ACAF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>stress change mode</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1019,7 +1019,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9B70255E-C784-4C92-B965-CF6443B7916E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>linguistic expressions</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1151,27 +1151,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1191,7 +1191,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BA75B8A3-D93B-473E-822F-AFF558904C4C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>school life</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1214,7 +1214,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{29CCE9A6-4A7B-4296-AD81-4B56CD86F45C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>romantic</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1240,7 +1240,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{74676318-7100-43F7-9CA0-FA1B32126C04}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>peer relationship</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1265,7 +1265,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0C9795C3-4B5C-4DDD-8A6C-53DBD1230310}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>self-cognition</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1290,7 +1290,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{10722E44-B638-494A-83BA-7CC1050BFAE8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.52</cx:f>
               <cx:v>family life</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11640,8 +11640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC3E1D5-42CB-4B11-9D52-5540D6D35B9E}">
   <dimension ref="A1:AY136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5:AY5"/>
+    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11935,11 +11935,11 @@
         <v>-1.0208400000000002</v>
       </c>
       <c r="Z3" s="1">
-        <f>AVERAGE(A3,I3,Q3)</f>
+        <f t="shared" ref="Z3:Z34" si="5">AVERAGE(A3,I3,Q3)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <f t="shared" ref="AA3:AA34" si="5">AVERAGE(B3,J3,R3)</f>
+        <f t="shared" ref="AA3:AA34" si="6">AVERAGE(B3,J3,R3)</f>
         <v>-2.2845333333333335</v>
       </c>
       <c r="AB3" s="1">
@@ -12046,11 +12046,11 @@
         <v>-0.65637999999999996</v>
       </c>
       <c r="Z4" s="1">
-        <f>AVERAGE(A4,I4,Q4)</f>
+        <f t="shared" si="5"/>
         <v>0.25196666666666667</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.78770000000000007</v>
       </c>
       <c r="AB4" s="1">
@@ -12162,11 +12162,11 @@
         <v>-7.9239999999999949E-2</v>
       </c>
       <c r="Z5" s="1">
-        <f>AVERAGE(A5,I5,Q5)</f>
+        <f t="shared" si="5"/>
         <v>1.3353333333333335</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.1232000000000002</v>
       </c>
       <c r="AB5" s="1">
@@ -12200,19 +12200,19 @@
         <v>0.67741935483870963</v>
       </c>
       <c r="AV5" s="8">
-        <f t="shared" ref="AV5:AY5" si="6">AV3/124</f>
+        <f t="shared" ref="AV5:AY5" si="7">AV3/124</f>
         <v>0.5161290322580645</v>
       </c>
       <c r="AW5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.717741935483871</v>
       </c>
       <c r="AX5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.52419354838709675</v>
       </c>
       <c r="AY5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83870967741935487</v>
       </c>
     </row>
@@ -12275,11 +12275,11 @@
         <v>5.5620000000000072E-2</v>
       </c>
       <c r="Z6" s="1">
-        <f>AVERAGE(A6,I6,Q6)</f>
+        <f t="shared" si="5"/>
         <v>0.3473</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9999999999998415E-4</v>
       </c>
       <c r="AB6" s="1">
@@ -12369,11 +12369,11 @@
         <v>0.48448000000000002</v>
       </c>
       <c r="Z7" s="1">
-        <f>AVERAGE(A7,I7,Q7)</f>
+        <f t="shared" si="5"/>
         <v>1.2423666666666666</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.8585333333333331</v>
       </c>
       <c r="AB7" s="1">
@@ -12462,11 +12462,11 @@
         <v>0.65324000000000004</v>
       </c>
       <c r="Z8" s="1">
-        <f>AVERAGE(A8,I8,Q8)</f>
+        <f t="shared" si="5"/>
         <v>1.2839</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.30556666666666665</v>
       </c>
       <c r="AB8" s="1">
@@ -12555,11 +12555,11 @@
         <v>0.69113999999999987</v>
       </c>
       <c r="Z9" s="1">
-        <f>AVERAGE(A9,I9,Q9)</f>
+        <f t="shared" si="5"/>
         <v>1.8394000000000001</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.26679999999999998</v>
       </c>
       <c r="AB9" s="1">
@@ -12649,11 +12649,11 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="Z10" s="1">
-        <f>AVERAGE(A10,I10,Q10)</f>
+        <f t="shared" si="5"/>
         <v>1.9344999999999999</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.76100000000000001</v>
       </c>
       <c r="AB10" s="1">
@@ -12743,11 +12743,11 @@
         <v>0.73732000000000009</v>
       </c>
       <c r="Z11" s="1">
-        <f>AVERAGE(A11,I11,Q11)</f>
+        <f t="shared" si="5"/>
         <v>1.0551333333333333</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.56126666666666669</v>
       </c>
       <c r="AB11" s="1">
@@ -12836,11 +12836,11 @@
         <v>0.78158000000000005</v>
       </c>
       <c r="Z12" s="1">
-        <f>AVERAGE(A12,I12,Q12)</f>
+        <f t="shared" si="5"/>
         <v>0.71006666666666673</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.0199333333333334</v>
       </c>
       <c r="AB12" s="1">
@@ -12929,11 +12929,11 @@
         <v>0.80925999999999987</v>
       </c>
       <c r="Z13" s="1">
-        <f>AVERAGE(A13,I13,Q13)</f>
+        <f t="shared" si="5"/>
         <v>1.2266666666666666</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69706666666666661</v>
       </c>
       <c r="AB13" s="1">
@@ -13022,15 +13022,15 @@
         <v>0.91324000000000005</v>
       </c>
       <c r="Z14" s="1">
-        <f>AVERAGE(A14,I14,Q14)</f>
+        <f t="shared" si="5"/>
         <v>1.3250333333333333</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.63649999999999995</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" ref="AB14:AB45" si="7">AVERAGE(C14,K14,S14)</f>
+        <f t="shared" ref="AB14:AB45" si="8">AVERAGE(C14,K14,S14)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="1">
@@ -13116,15 +13116,15 @@
         <v>0.99979999999999991</v>
       </c>
       <c r="Z15" s="1">
-        <f>AVERAGE(A15,I15,Q15)</f>
+        <f t="shared" si="5"/>
         <v>1.2424999999999999</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0800666666666667</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27689999999999998</v>
       </c>
       <c r="AC15" s="1">
@@ -13210,15 +13210,15 @@
         <v>1.0432199999999998</v>
       </c>
       <c r="Z16" s="1">
-        <f>AVERAGE(A16,I16,Q16)</f>
+        <f t="shared" si="5"/>
         <v>1.6480333333333332</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.1825</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1837</v>
       </c>
       <c r="AC16" s="1">
@@ -13304,15 +13304,15 @@
         <v>1.1487000000000001</v>
       </c>
       <c r="Z17" s="1">
-        <f>AVERAGE(A17,I17,Q17)</f>
+        <f t="shared" si="5"/>
         <v>2.4718</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.87950000000000006</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4450666666666667</v>
       </c>
       <c r="AC17" s="1">
@@ -13398,15 +13398,15 @@
         <v>1.1643599999999998</v>
       </c>
       <c r="Z18" s="1">
-        <f>AVERAGE(A18,I18,Q18)</f>
+        <f t="shared" si="5"/>
         <v>2.1220333333333334</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5795666666666666</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.76963333333333328</v>
       </c>
       <c r="AC18" s="1">
@@ -13492,15 +13492,15 @@
         <v>1.3287399999999998</v>
       </c>
       <c r="Z19" s="1">
-        <f>AVERAGE(A19,I19,Q19)</f>
+        <f t="shared" si="5"/>
         <v>1.8962666666666668</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.39286666666666664</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2981666666666665</v>
       </c>
       <c r="AC19" s="1">
@@ -13586,15 +13586,15 @@
         <v>1.37002</v>
       </c>
       <c r="Z20" s="1">
-        <f>AVERAGE(A20,I20,Q20)</f>
+        <f t="shared" si="5"/>
         <v>1.3369</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2871333333333332</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC20" s="1">
@@ -13680,15 +13680,15 @@
         <v>1.4069400000000001</v>
       </c>
       <c r="Z21" s="1">
-        <f>AVERAGE(A21,I21,Q21)</f>
+        <f t="shared" si="5"/>
         <v>0.47559999999999997</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7995000000000001</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC21" s="1">
@@ -13774,15 +13774,15 @@
         <v>1.4779599999999999</v>
       </c>
       <c r="Z22" s="1">
-        <f>AVERAGE(A22,I22,Q22)</f>
+        <f t="shared" si="5"/>
         <v>2.3196666666666665</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7323333333333331</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.8423666666666666</v>
       </c>
       <c r="AC22" s="1">
@@ -13868,15 +13868,15 @@
         <v>1.48614</v>
       </c>
       <c r="Z23" s="1">
-        <f>AVERAGE(A23,I23,Q23)</f>
+        <f t="shared" si="5"/>
         <v>1.2446333333333335</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.94333333333333336</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4194999999999998</v>
       </c>
       <c r="AC23" s="1">
@@ -13962,15 +13962,15 @@
         <v>1.4918200000000001</v>
       </c>
       <c r="Z24" s="1">
-        <f>AVERAGE(A24,I24,Q24)</f>
+        <f t="shared" si="5"/>
         <v>1.5149666666666668</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46056666666666662</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.622366666666667</v>
       </c>
       <c r="AC24" s="1">
@@ -14059,15 +14059,15 @@
         <v>1.5926199999999999</v>
       </c>
       <c r="Z25" s="1">
-        <f>AVERAGE(A25,I25,Q25)</f>
+        <f t="shared" si="5"/>
         <v>1.4318</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2962666666666667</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1837</v>
       </c>
       <c r="AC25" s="1">
@@ -14153,15 +14153,15 @@
         <v>1.5960399999999999</v>
       </c>
       <c r="Z26" s="1">
-        <f>AVERAGE(A26,I26,Q26)</f>
+        <f t="shared" si="5"/>
         <v>-7.0999999999999952E-2</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.40903333333333342</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4915666666666665</v>
       </c>
       <c r="AC26" s="1">
@@ -14247,15 +14247,15 @@
         <v>1.6089199999999999</v>
       </c>
       <c r="Z27" s="1">
-        <f>AVERAGE(A27,I27,Q27)</f>
+        <f t="shared" si="5"/>
         <v>1.3105333333333333</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6391000000000004</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC27" s="1">
@@ -14341,15 +14341,15 @@
         <v>1.7773800000000002</v>
       </c>
       <c r="Z28" s="1">
-        <f>AVERAGE(A28,I28,Q28)</f>
+        <f t="shared" si="5"/>
         <v>1.6166333333333334</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.80520000000000014</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2981666666666665</v>
       </c>
       <c r="AC28" s="1">
@@ -14435,15 +14435,15 @@
         <v>1.8</v>
       </c>
       <c r="Z29" s="1">
-        <f>AVERAGE(A29,I29,Q29)</f>
+        <f t="shared" si="5"/>
         <v>0.40876666666666667</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0847333333333333</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4082333333333334</v>
       </c>
       <c r="AC29" s="1">
@@ -14529,15 +14529,15 @@
         <v>1.8</v>
       </c>
       <c r="Z30" s="1">
-        <f>AVERAGE(A30,I30,Q30)</f>
+        <f t="shared" si="5"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6330666666666667</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC30" s="1">
@@ -14623,15 +14623,15 @@
         <v>1.8</v>
       </c>
       <c r="Z31" s="1">
-        <f>AVERAGE(A31,I31,Q31)</f>
+        <f t="shared" si="5"/>
         <v>1.8448333333333331</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3634333333333333</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3536666666666668</v>
       </c>
       <c r="AC31" s="1">
@@ -14717,15 +14717,15 @@
         <v>1.8664400000000001</v>
       </c>
       <c r="Z32" s="1">
-        <f>AVERAGE(A32,I32,Q32)</f>
+        <f t="shared" si="5"/>
         <v>1.2905333333333335</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9242999999999999</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC32" s="1">
@@ -14814,15 +14814,15 @@
         <v>32</v>
       </c>
       <c r="Z33" s="1">
-        <f>AVERAGE(A33,I33,Q33)</f>
+        <f t="shared" si="5"/>
         <v>1.2420666666666669</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.68626666666666658</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1837</v>
       </c>
       <c r="AC33" s="1">
@@ -14866,7 +14866,7 @@
         <v>1.7135</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F65" si="8">AVERAGE(A34:E34)</f>
+        <f t="shared" ref="F34:F65" si="9">AVERAGE(A34:E34)</f>
         <v>2.3918399999999997</v>
       </c>
       <c r="I34" s="1">
@@ -14885,7 +14885,7 @@
         <v>0.22559999999999999</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" ref="N34:N65" si="9">AVERAGE(I34:M34)</f>
+        <f t="shared" ref="N34:N65" si="10">AVERAGE(I34:M34)</f>
         <v>1.6609799999999999</v>
       </c>
       <c r="Q34" s="1">
@@ -14904,27 +14904,27 @@
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" ref="V34:V65" si="10">AVERAGE(Q34:U34)</f>
+        <f t="shared" ref="V34:V65" si="11">AVERAGE(Q34:U34)</f>
         <v>2.0230199999999998</v>
       </c>
       <c r="Z34" s="1">
-        <f>AVERAGE(A34,I34,Q34)</f>
+        <f t="shared" si="5"/>
         <v>1.5319333333333331</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9855999999999998</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9021999999999997</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" ref="AC34:AC65" si="11">AVERAGE(D34,L34,T34)</f>
+        <f t="shared" ref="AC34:AC65" si="12">AVERAGE(D34,L34,T34)</f>
         <v>1.0603</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" ref="AD34:AD65" si="12">AVERAGE(E34,M34,U34)</f>
+        <f t="shared" ref="AD34:AD65" si="13">AVERAGE(E34,M34,U34)</f>
         <v>0.64636666666666664</v>
       </c>
       <c r="AN34" s="1">
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
       <c r="I35" s="1">
@@ -14979,7 +14979,7 @@
         <v>5.1882999999999999</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7495800000000004</v>
       </c>
       <c r="Q35" s="1">
@@ -14998,27 +14998,27 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0309800000000005</v>
       </c>
       <c r="Z35" s="1">
-        <f>AVERAGE(A35,I35,Q35)</f>
+        <f t="shared" ref="Z35:Z69" si="14">AVERAGE(A35,I35,Q35)</f>
         <v>2.8553666666666668</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" ref="AA35:AA66" si="13">AVERAGE(B35,J35,R35)</f>
+        <f t="shared" ref="AA35:AA66" si="15">AVERAGE(B35,J35,R35)</f>
         <v>1.278</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4444333333333335</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2926666666666666</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.4304666666666663</v>
       </c>
       <c r="AN35" s="1">
@@ -15054,7 +15054,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
       <c r="I36" s="1">
@@ -15073,7 +15073,7 @@
         <v>1.6667000000000001</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7967200000000001</v>
       </c>
       <c r="Q36" s="1">
@@ -15092,27 +15092,27 @@
         <v>2.6774</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0360400000000003</v>
       </c>
       <c r="Z36" s="1">
-        <f>AVERAGE(A36,I36,Q36)</f>
+        <f t="shared" si="14"/>
         <v>2.1060000000000003</v>
       </c>
       <c r="AA36" s="1">
+        <f t="shared" si="15"/>
+        <v>2.7378333333333331</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1224666666666667</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9736</v>
+      </c>
+      <c r="AD36" s="1">
         <f t="shared" si="13"/>
-        <v>2.7378333333333331</v>
-      </c>
-      <c r="AB36" s="1">
-        <f t="shared" si="7"/>
-        <v>1.1224666666666667</v>
-      </c>
-      <c r="AC36" s="1">
-        <f t="shared" si="11"/>
-        <v>1.9736</v>
-      </c>
-      <c r="AD36" s="1">
-        <f t="shared" si="12"/>
         <v>2.4480333333333335</v>
       </c>
       <c r="AN36" s="1">
@@ -15148,7 +15148,7 @@
         <v>3.8515999999999999</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4144999999999999</v>
       </c>
       <c r="I37" s="1">
@@ -15167,7 +15167,7 @@
         <v>3</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
       <c r="Q37" s="1">
@@ -15186,27 +15186,27 @@
         <v>1.9614</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0596399999999999</v>
       </c>
       <c r="Z37" s="1">
-        <f>AVERAGE(A37,I37,Q37)</f>
+        <f t="shared" si="14"/>
         <v>1.4416</v>
       </c>
       <c r="AA37" s="1">
+        <f t="shared" si="15"/>
+        <v>1.9444333333333332</v>
+      </c>
+      <c r="AB37" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1837333333333331</v>
+      </c>
+      <c r="AC37" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9494666666666667</v>
+      </c>
+      <c r="AD37" s="1">
         <f t="shared" si="13"/>
-        <v>1.9444333333333332</v>
-      </c>
-      <c r="AB37" s="1">
-        <f t="shared" si="7"/>
-        <v>2.1837333333333331</v>
-      </c>
-      <c r="AC37" s="1">
-        <f t="shared" si="11"/>
-        <v>1.9494666666666667</v>
-      </c>
-      <c r="AD37" s="1">
-        <f t="shared" si="12"/>
         <v>2.9376666666666664</v>
       </c>
       <c r="AN37" s="1">
@@ -15242,7 +15242,7 @@
         <v>-3.8699999999999998E-2</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4341999999999997</v>
       </c>
       <c r="I38" s="1">
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
       <c r="Q38" s="1">
@@ -15280,27 +15280,27 @@
         <v>0.2727</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0844</v>
       </c>
       <c r="Z38" s="1">
-        <f>AVERAGE(A38,I38,Q38)</f>
+        <f t="shared" si="14"/>
         <v>2.543366666666667</v>
       </c>
       <c r="AA38" s="1">
+        <f t="shared" si="15"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="8"/>
+        <v>6.7073333333333336</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="12"/>
+        <v>0.61896666666666655</v>
+      </c>
+      <c r="AD38" s="1">
         <f t="shared" si="13"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="AB38" s="1">
-        <f t="shared" si="7"/>
-        <v>6.7073333333333336</v>
-      </c>
-      <c r="AC38" s="1">
-        <f t="shared" si="11"/>
-        <v>0.61896666666666655</v>
-      </c>
-      <c r="AD38" s="1">
-        <f t="shared" si="12"/>
         <v>7.8E-2</v>
       </c>
       <c r="AN38" s="1">
@@ -15336,7 +15336,7 @@
         <v>6.0414000000000003</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4357599999999997</v>
       </c>
       <c r="I39" s="1">
@@ -15355,7 +15355,7 @@
         <v>1.6846000000000001</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8199200000000002</v>
       </c>
       <c r="Q39" s="1">
@@ -15374,27 +15374,27 @@
         <v>3.0792000000000002</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.16018</v>
       </c>
       <c r="Z39" s="1">
-        <f>AVERAGE(A39,I39,Q39)</f>
+        <f t="shared" si="14"/>
         <v>1.3221666666666667</v>
       </c>
       <c r="AA39" s="1">
+        <f t="shared" si="15"/>
+        <v>1.0448333333333333</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="8"/>
+        <v>4.2299999999999995</v>
+      </c>
+      <c r="AC39" s="1">
+        <f t="shared" si="12"/>
+        <v>0.49436666666666668</v>
+      </c>
+      <c r="AD39" s="1">
         <f t="shared" si="13"/>
-        <v>1.0448333333333333</v>
-      </c>
-      <c r="AB39" s="1">
-        <f t="shared" si="7"/>
-        <v>4.2299999999999995</v>
-      </c>
-      <c r="AC39" s="1">
-        <f t="shared" si="11"/>
-        <v>0.49436666666666668</v>
-      </c>
-      <c r="AD39" s="1">
-        <f t="shared" si="12"/>
         <v>3.6017333333333337</v>
       </c>
       <c r="AN39" s="1">
@@ -15430,7 +15430,7 @@
         <v>2.8607</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4469000000000003</v>
       </c>
       <c r="I40" s="1">
@@ -15449,7 +15449,7 @@
         <v>4</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8526399999999998</v>
       </c>
       <c r="Q40" s="1">
@@ -15468,27 +15468,27 @@
         <v>3.9979</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1794599999999997</v>
       </c>
       <c r="Z40" s="1">
-        <f>AVERAGE(A40,I40,Q40)</f>
+        <f t="shared" si="14"/>
         <v>0.9189666666666666</v>
       </c>
       <c r="AA40" s="1">
+        <f t="shared" si="15"/>
+        <v>1.3760000000000001</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" si="8"/>
+        <v>3.7183666666666668</v>
+      </c>
+      <c r="AC40" s="1">
+        <f t="shared" si="12"/>
+        <v>1.1654666666666667</v>
+      </c>
+      <c r="AD40" s="1">
         <f t="shared" si="13"/>
-        <v>1.3760000000000001</v>
-      </c>
-      <c r="AB40" s="1">
-        <f t="shared" si="7"/>
-        <v>3.7183666666666668</v>
-      </c>
-      <c r="AC40" s="1">
-        <f t="shared" si="11"/>
-        <v>1.1654666666666667</v>
-      </c>
-      <c r="AD40" s="1">
-        <f t="shared" si="12"/>
         <v>3.619533333333333</v>
       </c>
       <c r="AN40" s="1">
@@ -15524,7 +15524,7 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5173399999999999</v>
       </c>
       <c r="I41" s="1">
@@ -15543,7 +15543,7 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9032400000000003</v>
       </c>
       <c r="O41" s="1">
@@ -15565,27 +15565,27 @@
         <v>1.1180000000000001</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1801599999999999</v>
       </c>
       <c r="Z41" s="1">
-        <f>AVERAGE(A41,I41,Q41)</f>
+        <f t="shared" si="14"/>
         <v>1.5563</v>
       </c>
       <c r="AA41" s="1">
+        <f t="shared" si="15"/>
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="AB41" s="1">
+        <f t="shared" si="8"/>
+        <v>5.1944333333333335</v>
+      </c>
+      <c r="AC41" s="1">
+        <f t="shared" si="12"/>
+        <v>-6.9133333333333338E-2</v>
+      </c>
+      <c r="AD41" s="1">
         <f t="shared" si="13"/>
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="AB41" s="1">
-        <f t="shared" si="7"/>
-        <v>5.1944333333333335</v>
-      </c>
-      <c r="AC41" s="1">
-        <f t="shared" si="11"/>
-        <v>-6.9133333333333338E-2</v>
-      </c>
-      <c r="AD41" s="1">
-        <f t="shared" si="12"/>
         <v>3.7747333333333337</v>
       </c>
       <c r="AN41" s="1">
@@ -15621,7 +15621,7 @@
         <v>4.0952999999999999</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5197599999999998</v>
       </c>
       <c r="I42" s="1">
@@ -15640,7 +15640,7 @@
         <v>1.4</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9626600000000003</v>
       </c>
       <c r="Q42" s="1">
@@ -15659,27 +15659,27 @@
         <v>4.3352000000000004</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2526999999999999</v>
       </c>
       <c r="Z42" s="1">
-        <f>AVERAGE(A42,I42,Q42)</f>
+        <f t="shared" si="14"/>
         <v>1.2468666666666666</v>
       </c>
       <c r="AA42" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.25536666666666674</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="8"/>
+        <v>7.5176000000000007</v>
+      </c>
+      <c r="AC42" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.56073333333333319</v>
+      </c>
+      <c r="AD42" s="1">
         <f t="shared" si="13"/>
-        <v>-0.25536666666666674</v>
-      </c>
-      <c r="AB42" s="1">
-        <f t="shared" si="7"/>
-        <v>7.5176000000000007</v>
-      </c>
-      <c r="AC42" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.56073333333333319</v>
-      </c>
-      <c r="AD42" s="1">
-        <f t="shared" si="12"/>
         <v>3.2768333333333337</v>
       </c>
       <c r="AN42" s="1">
@@ -15715,7 +15715,7 @@
         <v>2.5270999999999999</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5599400000000001</v>
       </c>
       <c r="I43" s="1">
@@ -15734,7 +15734,7 @@
         <v>4.2351999999999999</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0535199999999998</v>
       </c>
       <c r="Q43" s="1">
@@ -15753,27 +15753,27 @@
         <v>2.9043999999999999</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2815799999999995</v>
       </c>
       <c r="Z43" s="1">
-        <f>AVERAGE(A43,I43,Q43)</f>
+        <f t="shared" si="14"/>
         <v>4.0443999999999996</v>
       </c>
       <c r="AA43" s="1">
+        <f t="shared" si="15"/>
+        <v>1.1335</v>
+      </c>
+      <c r="AB43" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4193666666666664</v>
+      </c>
+      <c r="AC43" s="1">
+        <f t="shared" si="12"/>
+        <v>0.67223333333333335</v>
+      </c>
+      <c r="AD43" s="1">
         <f t="shared" si="13"/>
-        <v>1.1335</v>
-      </c>
-      <c r="AB43" s="1">
-        <f t="shared" si="7"/>
-        <v>2.4193666666666664</v>
-      </c>
-      <c r="AC43" s="1">
-        <f t="shared" si="11"/>
-        <v>0.67223333333333335</v>
-      </c>
-      <c r="AD43" s="1">
-        <f t="shared" si="12"/>
         <v>3.2222333333333331</v>
       </c>
       <c r="AN43" s="1">
@@ -15809,7 +15809,7 @@
         <v>5.9710000000000001</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.60968</v>
       </c>
       <c r="I44" s="1">
@@ -15828,7 +15828,7 @@
         <v>0.32390000000000002</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0769200000000003</v>
       </c>
       <c r="Q44" s="1">
@@ -15847,27 +15847,27 @@
         <v>2.3332999999999999</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2974199999999998</v>
       </c>
       <c r="Z44" s="1">
-        <f>AVERAGE(A44,I44,Q44)</f>
+        <f t="shared" si="14"/>
         <v>3.9842333333333335</v>
       </c>
       <c r="AA44" s="1">
+        <f t="shared" si="15"/>
+        <v>1.1484333333333334</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8229</v>
+      </c>
+      <c r="AC44" s="1">
+        <f t="shared" si="12"/>
+        <v>1.8084</v>
+      </c>
+      <c r="AD44" s="1">
         <f t="shared" si="13"/>
-        <v>1.1484333333333334</v>
-      </c>
-      <c r="AB44" s="1">
-        <f t="shared" si="7"/>
-        <v>1.8229</v>
-      </c>
-      <c r="AC44" s="1">
-        <f t="shared" si="11"/>
-        <v>1.8084</v>
-      </c>
-      <c r="AD44" s="1">
-        <f t="shared" si="12"/>
         <v>2.8760666666666665</v>
       </c>
       <c r="AN44" s="1">
@@ -15903,7 +15903,7 @@
         <v>2.8075999999999999</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7104399999999997</v>
       </c>
       <c r="I45" s="1">
@@ -15922,7 +15922,7 @@
         <v>3</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0996999999999999</v>
       </c>
       <c r="Q45" s="1">
@@ -15941,27 +15941,27 @@
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="Z45" s="1">
-        <f>AVERAGE(A45,I45,Q45)</f>
+        <f t="shared" si="14"/>
         <v>2.1536</v>
       </c>
       <c r="AA45" s="1">
+        <f t="shared" si="15"/>
+        <v>2.2574000000000001</v>
+      </c>
+      <c r="AB45" s="1">
+        <f t="shared" si="8"/>
+        <v>3.3536666666666668</v>
+      </c>
+      <c r="AC45" s="1">
+        <f t="shared" si="12"/>
+        <v>2.3163666666666667</v>
+      </c>
+      <c r="AD45" s="1">
         <f t="shared" si="13"/>
-        <v>2.2574000000000001</v>
-      </c>
-      <c r="AB45" s="1">
-        <f t="shared" si="7"/>
-        <v>3.3536666666666668</v>
-      </c>
-      <c r="AC45" s="1">
-        <f t="shared" si="11"/>
-        <v>2.3163666666666667</v>
-      </c>
-      <c r="AD45" s="1">
-        <f t="shared" si="12"/>
         <v>1.9358666666666666</v>
       </c>
       <c r="AN45" s="1">
@@ -15997,7 +15997,7 @@
         <v>2.5421999999999998</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7192599999999998</v>
       </c>
       <c r="I46" s="1">
@@ -16016,7 +16016,7 @@
         <v>0.52249999999999996</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1966200000000002</v>
       </c>
       <c r="Q46" s="1">
@@ -16035,27 +16035,27 @@
         <v>3</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="Z46" s="1">
-        <f>AVERAGE(A46,I46,Q46)</f>
+        <f t="shared" si="14"/>
         <v>4.8216333333333337</v>
       </c>
       <c r="AA46" s="1">
+        <f t="shared" si="15"/>
+        <v>1.4532</v>
+      </c>
+      <c r="AB46" s="1">
+        <f t="shared" ref="AB46:AB77" si="16">AVERAGE(C46,K46,S46)</f>
+        <v>2.2300666666666666</v>
+      </c>
+      <c r="AC46" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AD46" s="1">
         <f t="shared" si="13"/>
-        <v>1.4532</v>
-      </c>
-      <c r="AB46" s="1">
-        <f t="shared" ref="AB46:AB77" si="14">AVERAGE(C46,K46,S46)</f>
-        <v>2.2300666666666666</v>
-      </c>
-      <c r="AC46" s="1">
-        <f t="shared" si="11"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AD46" s="1">
-        <f t="shared" si="12"/>
         <v>2.0215666666666667</v>
       </c>
       <c r="AN46" s="1">
@@ -16091,7 +16091,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7913199999999998</v>
       </c>
       <c r="I47" s="1">
@@ -16110,7 +16110,7 @@
         <v>1.2547999999999999</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2378</v>
       </c>
       <c r="Q47" s="1">
@@ -16129,27 +16129,27 @@
         <v>2</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.41364</v>
       </c>
       <c r="Z47" s="1">
-        <f>AVERAGE(A47,I47,Q47)</f>
+        <f t="shared" si="14"/>
         <v>3.9231333333333329</v>
       </c>
       <c r="AA47" s="1">
+        <f t="shared" si="15"/>
+        <v>2.0368333333333335</v>
+      </c>
+      <c r="AB47" s="1">
+        <f t="shared" si="16"/>
+        <v>1.1224666666666667</v>
+      </c>
+      <c r="AC47" s="1">
+        <f t="shared" si="12"/>
+        <v>1.2313333333333334</v>
+      </c>
+      <c r="AD47" s="1">
         <f t="shared" si="13"/>
-        <v>2.0368333333333335</v>
-      </c>
-      <c r="AB47" s="1">
-        <f t="shared" si="14"/>
-        <v>1.1224666666666667</v>
-      </c>
-      <c r="AC47" s="1">
-        <f t="shared" si="11"/>
-        <v>1.2313333333333334</v>
-      </c>
-      <c r="AD47" s="1">
-        <f t="shared" si="12"/>
         <v>4.0908333333333333</v>
       </c>
       <c r="AN47" s="1">
@@ -16185,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9474200000000002</v>
       </c>
       <c r="I48" s="1">
@@ -16204,7 +16204,7 @@
         <v>3.9979</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2761400000000003</v>
       </c>
       <c r="Q48" s="1">
@@ -16223,27 +16223,27 @@
         <v>6.3131000000000004</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4239600000000001</v>
       </c>
       <c r="Z48" s="1">
-        <f>AVERAGE(A48,I48,Q48)</f>
+        <f t="shared" si="14"/>
         <v>3.904633333333333</v>
       </c>
       <c r="AA48" s="1">
+        <f t="shared" si="15"/>
+        <v>1.1554666666666666</v>
+      </c>
+      <c r="AB48" s="1">
+        <f t="shared" si="16"/>
+        <v>3.2601333333333335</v>
+      </c>
+      <c r="AC48" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98863333333333336</v>
+      </c>
+      <c r="AD48" s="1">
         <f t="shared" si="13"/>
-        <v>1.1554666666666666</v>
-      </c>
-      <c r="AB48" s="1">
-        <f t="shared" si="14"/>
-        <v>3.2601333333333335</v>
-      </c>
-      <c r="AC48" s="1">
-        <f t="shared" si="11"/>
-        <v>0.98863333333333336</v>
-      </c>
-      <c r="AD48" s="1">
-        <f t="shared" si="12"/>
         <v>3.4369999999999998</v>
       </c>
       <c r="AN48" s="1">
@@ -16279,7 +16279,7 @@
         <v>1.8</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0199800000000003</v>
       </c>
       <c r="I49" s="1">
@@ -16298,7 +16298,7 @@
         <v>0.2727</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3001200000000002</v>
       </c>
       <c r="Q49" s="1">
@@ -16317,27 +16317,27 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.43614</v>
       </c>
       <c r="Z49" s="1">
-        <f>AVERAGE(A49,I49,Q49)</f>
+        <f t="shared" si="14"/>
         <v>5.0838666666666663</v>
       </c>
       <c r="AA49" s="1">
+        <f t="shared" si="15"/>
+        <v>9.8133333333333336E-2</v>
+      </c>
+      <c r="AB49" s="1">
+        <f t="shared" si="16"/>
+        <v>3.7182666666666666</v>
+      </c>
+      <c r="AC49" s="1">
+        <f t="shared" si="12"/>
+        <v>0.33</v>
+      </c>
+      <c r="AD49" s="1">
         <f t="shared" si="13"/>
-        <v>9.8133333333333336E-2</v>
-      </c>
-      <c r="AB49" s="1">
-        <f t="shared" si="14"/>
-        <v>3.7182666666666666</v>
-      </c>
-      <c r="AC49" s="1">
-        <f t="shared" si="11"/>
-        <v>0.33</v>
-      </c>
-      <c r="AD49" s="1">
-        <f t="shared" si="12"/>
         <v>3.6967999999999996</v>
       </c>
       <c r="AN49" s="1">
@@ -16373,7 +16373,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0806999999999998</v>
       </c>
       <c r="I50" s="1">
@@ -16392,7 +16392,7 @@
         <v>2.3089</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3352200000000001</v>
       </c>
       <c r="Q50" s="1">
@@ -16411,27 +16411,27 @@
         <v>2.1030000000000002</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.52162</v>
       </c>
       <c r="Z50" s="1">
-        <f>AVERAGE(A50,I50,Q50)</f>
+        <f t="shared" si="14"/>
         <v>4.264333333333334</v>
       </c>
       <c r="AA50" s="1">
+        <f t="shared" si="15"/>
+        <v>2.1305999999999998</v>
+      </c>
+      <c r="AB50" s="1">
+        <f t="shared" si="16"/>
+        <v>1.9556333333333331</v>
+      </c>
+      <c r="AC50" s="1">
+        <f t="shared" si="12"/>
+        <v>2.4080333333333335</v>
+      </c>
+      <c r="AD50" s="1">
         <f t="shared" si="13"/>
-        <v>2.1305999999999998</v>
-      </c>
-      <c r="AB50" s="1">
-        <f t="shared" si="14"/>
-        <v>1.9556333333333331</v>
-      </c>
-      <c r="AC50" s="1">
-        <f t="shared" si="11"/>
-        <v>2.4080333333333335</v>
-      </c>
-      <c r="AD50" s="1">
-        <f t="shared" si="12"/>
         <v>2.4706333333333332</v>
       </c>
       <c r="AN50" s="1">
@@ -16467,7 +16467,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0887800000000003</v>
       </c>
       <c r="I51" s="1">
@@ -16486,7 +16486,7 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3727399999999998</v>
       </c>
       <c r="Q51" s="1">
@@ -16505,27 +16505,27 @@
         <v>6.2529000000000003</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6554200000000003</v>
       </c>
       <c r="Z51" s="1">
-        <f>AVERAGE(A51,I51,Q51)</f>
+        <f t="shared" si="14"/>
         <v>2.0943333333333332</v>
       </c>
       <c r="AA51" s="1">
+        <f t="shared" si="15"/>
+        <v>1.2769333333333333</v>
+      </c>
+      <c r="AB51" s="1">
+        <f t="shared" si="16"/>
+        <v>2.7887666666666671</v>
+      </c>
+      <c r="AC51" s="1">
+        <f t="shared" si="12"/>
+        <v>1.1978666666666666</v>
+      </c>
+      <c r="AD51" s="1">
         <f t="shared" si="13"/>
-        <v>1.2769333333333333</v>
-      </c>
-      <c r="AB51" s="1">
-        <f t="shared" si="14"/>
-        <v>2.7887666666666671</v>
-      </c>
-      <c r="AC51" s="1">
-        <f t="shared" si="11"/>
-        <v>1.1978666666666666</v>
-      </c>
-      <c r="AD51" s="1">
-        <f t="shared" si="12"/>
         <v>6.1703333333333328</v>
       </c>
       <c r="AN51" s="1">
@@ -16561,7 +16561,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1411199999999999</v>
       </c>
       <c r="I52" s="1">
@@ -16580,7 +16580,7 @@
         <v>2.629</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3778799999999998</v>
       </c>
       <c r="Q52" s="1">
@@ -16599,27 +16599,27 @@
         <v>5</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.66154</v>
       </c>
       <c r="Z52" s="1">
-        <f>AVERAGE(A52,I52,Q52)</f>
+        <f t="shared" si="14"/>
         <v>2.3523333333333332</v>
       </c>
       <c r="AA52" s="1">
+        <f t="shared" si="15"/>
+        <v>1.415</v>
+      </c>
+      <c r="AB52" s="1">
+        <f t="shared" si="16"/>
+        <v>5.0547000000000004</v>
+      </c>
+      <c r="AC52" s="1">
+        <f t="shared" si="12"/>
+        <v>1.2691999999999999</v>
+      </c>
+      <c r="AD52" s="1">
         <f t="shared" si="13"/>
-        <v>1.415</v>
-      </c>
-      <c r="AB52" s="1">
-        <f t="shared" si="14"/>
-        <v>5.0547000000000004</v>
-      </c>
-      <c r="AC52" s="1">
-        <f t="shared" si="11"/>
-        <v>1.2691999999999999</v>
-      </c>
-      <c r="AD52" s="1">
-        <f t="shared" si="12"/>
         <v>3.5429999999999997</v>
       </c>
       <c r="AN52" s="1">
@@ -16655,7 +16655,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1880999999999995</v>
       </c>
       <c r="I53" s="1">
@@ -16674,7 +16674,7 @@
         <v>3.1331000000000002</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3811200000000001</v>
       </c>
       <c r="Q53" s="1">
@@ -16693,27 +16693,27 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6915800000000005</v>
       </c>
       <c r="Z53" s="1">
-        <f>AVERAGE(A53,I53,Q53)</f>
+        <f t="shared" si="14"/>
         <v>4.8725666666666667</v>
       </c>
       <c r="AA53" s="1">
+        <f t="shared" si="15"/>
+        <v>2.8795999999999999</v>
+      </c>
+      <c r="AB53" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <f t="shared" si="12"/>
+        <v>2.2704333333333331</v>
+      </c>
+      <c r="AD53" s="1">
         <f t="shared" si="13"/>
-        <v>2.8795999999999999</v>
-      </c>
-      <c r="AB53" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="1">
-        <f t="shared" si="11"/>
-        <v>2.2704333333333331</v>
-      </c>
-      <c r="AD53" s="1">
-        <f t="shared" si="12"/>
         <v>3.7454000000000001</v>
       </c>
       <c r="AN53" s="1">
@@ -16749,7 +16749,7 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2738600000000004</v>
       </c>
       <c r="I54" s="1">
@@ -16768,7 +16768,7 @@
         <v>3</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
       <c r="Q54" s="1">
@@ -16787,27 +16787,27 @@
         <v>6.0414000000000003</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9034599999999999</v>
       </c>
       <c r="Z54" s="1">
-        <f>AVERAGE(A54,I54,Q54)</f>
+        <f t="shared" si="14"/>
         <v>3.6202333333333332</v>
       </c>
       <c r="AA54" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9802333333333331</v>
+      </c>
+      <c r="AB54" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <f t="shared" si="12"/>
+        <v>2.9802333333333331</v>
+      </c>
+      <c r="AD54" s="1">
         <f t="shared" si="13"/>
-        <v>2.9802333333333331</v>
-      </c>
-      <c r="AB54" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC54" s="1">
-        <f t="shared" si="11"/>
-        <v>2.9802333333333331</v>
-      </c>
-      <c r="AD54" s="1">
-        <f t="shared" si="12"/>
         <v>4.7148333333333339</v>
       </c>
       <c r="AN54" s="1">
@@ -16843,7 +16843,7 @@
         <v>5.7184999999999997</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5205399999999996</v>
       </c>
       <c r="I55" s="1">
@@ -16862,7 +16862,7 @@
         <v>-0.35010000000000002</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4833799999999999</v>
       </c>
       <c r="Q55" s="1">
@@ -16881,27 +16881,27 @@
         <v>4.2351999999999999</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9357599999999997</v>
       </c>
       <c r="Z55" s="1">
-        <f>AVERAGE(A55,I55,Q55)</f>
+        <f t="shared" si="14"/>
         <v>3.4994333333333336</v>
       </c>
       <c r="AA55" s="1">
+        <f t="shared" si="15"/>
+        <v>0.48580000000000001</v>
+      </c>
+      <c r="AB55" s="1">
+        <f t="shared" si="16"/>
+        <v>6.9947333333333335</v>
+      </c>
+      <c r="AC55" s="1">
+        <f t="shared" si="12"/>
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="AD55" s="1">
         <f t="shared" si="13"/>
-        <v>0.48580000000000001</v>
-      </c>
-      <c r="AB55" s="1">
-        <f t="shared" si="14"/>
-        <v>6.9947333333333335</v>
-      </c>
-      <c r="AC55" s="1">
-        <f t="shared" si="11"/>
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="AD55" s="1">
-        <f t="shared" si="12"/>
         <v>3.2012</v>
       </c>
       <c r="AN55" s="1">
@@ -16937,7 +16937,7 @@
         <v>5.1882999999999999</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5232399999999999</v>
       </c>
       <c r="I56" s="1">
@@ -16956,7 +16956,7 @@
         <v>2.8607</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.65388</v>
       </c>
       <c r="Q56" s="1">
@@ -16975,27 +16975,27 @@
         <v>-0.35010000000000002</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9497399999999998</v>
       </c>
       <c r="Z56" s="1">
-        <f>AVERAGE(A56,I56,Q56)</f>
+        <f t="shared" si="14"/>
         <v>3.4293666666666667</v>
       </c>
       <c r="AA56" s="1">
+        <f t="shared" si="15"/>
+        <v>1.1951000000000001</v>
+      </c>
+      <c r="AB56" s="1">
+        <f t="shared" si="16"/>
+        <v>6.9388000000000005</v>
+      </c>
+      <c r="AC56" s="1">
+        <f t="shared" si="12"/>
+        <v>1.0818666666666665</v>
+      </c>
+      <c r="AD56" s="1">
         <f t="shared" si="13"/>
-        <v>1.1951000000000001</v>
-      </c>
-      <c r="AB56" s="1">
-        <f t="shared" si="14"/>
-        <v>6.9388000000000005</v>
-      </c>
-      <c r="AC56" s="1">
-        <f t="shared" si="11"/>
-        <v>1.0818666666666665</v>
-      </c>
-      <c r="AD56" s="1">
-        <f t="shared" si="12"/>
         <v>2.5662999999999996</v>
       </c>
       <c r="AN56" s="1">
@@ -17031,7 +17031,7 @@
         <v>4.8666</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.61456</v>
       </c>
       <c r="I57" s="1">
@@ -17050,7 +17050,7 @@
         <v>4</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7152000000000003</v>
       </c>
       <c r="Q57" s="1">
@@ -17069,27 +17069,27 @@
         <v>1.8</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.0199800000000003</v>
       </c>
       <c r="Z57" s="1">
-        <f>AVERAGE(A57,I57,Q57)</f>
+        <f t="shared" si="14"/>
         <v>5.8813000000000004</v>
       </c>
       <c r="AA57" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5125999999999999</v>
+      </c>
+      <c r="AB57" s="1">
+        <f t="shared" si="16"/>
+        <v>1.4117333333333333</v>
+      </c>
+      <c r="AC57" s="1">
+        <f t="shared" si="12"/>
+        <v>2.2217333333333333</v>
+      </c>
+      <c r="AD57" s="1">
         <f t="shared" si="13"/>
-        <v>2.5125999999999999</v>
-      </c>
-      <c r="AB57" s="1">
-        <f t="shared" si="14"/>
-        <v>1.4117333333333333</v>
-      </c>
-      <c r="AC57" s="1">
-        <f t="shared" si="11"/>
-        <v>2.2217333333333333</v>
-      </c>
-      <c r="AD57" s="1">
-        <f t="shared" si="12"/>
         <v>3.5555333333333334</v>
       </c>
       <c r="AN57" s="1">
@@ -17125,7 +17125,7 @@
         <v>5</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6296799999999996</v>
       </c>
       <c r="I58" s="1">
@@ -17144,7 +17144,7 @@
         <v>3.4821</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7725</v>
       </c>
       <c r="Q58" s="1">
@@ -17163,27 +17163,27 @@
         <v>2.3332999999999999</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.0513599999999999</v>
       </c>
       <c r="Z58" s="1">
-        <f>AVERAGE(A58,I58,Q58)</f>
+        <f t="shared" si="14"/>
         <v>4.4354000000000005</v>
       </c>
       <c r="AA58" s="1">
+        <f t="shared" si="15"/>
+        <v>2.4493666666666667</v>
+      </c>
+      <c r="AB58" s="1">
+        <f t="shared" si="16"/>
+        <v>2.5057333333333336</v>
+      </c>
+      <c r="AC58" s="1">
+        <f t="shared" si="12"/>
+        <v>2.7602666666666664</v>
+      </c>
+      <c r="AD58" s="1">
         <f t="shared" si="13"/>
-        <v>2.4493666666666667</v>
-      </c>
-      <c r="AB58" s="1">
-        <f t="shared" si="14"/>
-        <v>2.5057333333333336</v>
-      </c>
-      <c r="AC58" s="1">
-        <f t="shared" si="11"/>
-        <v>2.7602666666666664</v>
-      </c>
-      <c r="AD58" s="1">
-        <f t="shared" si="12"/>
         <v>3.6051333333333329</v>
       </c>
       <c r="AN58" s="1">
@@ -17219,7 +17219,7 @@
         <v>8.2998999999999992</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6661999999999999</v>
       </c>
       <c r="I59" s="1">
@@ -17238,7 +17238,7 @@
         <v>3.7389999999999999</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7871000000000001</v>
       </c>
       <c r="Q59" s="1">
@@ -17257,27 +17257,27 @@
         <v>5.7184999999999997</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1108799999999994</v>
       </c>
       <c r="Z59" s="1">
-        <f>AVERAGE(A59,I59,Q59)</f>
+        <f t="shared" si="14"/>
         <v>3.2118666666666669</v>
       </c>
       <c r="AA59" s="1">
+        <f t="shared" si="15"/>
+        <v>1.2785333333333331</v>
+      </c>
+      <c r="AB59" s="1">
+        <f t="shared" si="16"/>
+        <v>4.2522333333333329</v>
+      </c>
+      <c r="AC59" s="1">
+        <f t="shared" si="12"/>
+        <v>1.2785333333333331</v>
+      </c>
+      <c r="AD59" s="1">
         <f t="shared" si="13"/>
-        <v>1.2785333333333331</v>
-      </c>
-      <c r="AB59" s="1">
-        <f t="shared" si="14"/>
-        <v>4.2522333333333329</v>
-      </c>
-      <c r="AC59" s="1">
-        <f t="shared" si="11"/>
-        <v>1.2785333333333331</v>
-      </c>
-      <c r="AD59" s="1">
-        <f t="shared" si="12"/>
         <v>5.919133333333332</v>
       </c>
       <c r="AN59" s="1">
@@ -17313,7 +17313,7 @@
         <v>4.6906999999999996</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6969000000000003</v>
       </c>
       <c r="I60" s="1">
@@ -17332,7 +17332,7 @@
         <v>6.5983000000000001</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7904200000000001</v>
       </c>
       <c r="Q60" s="1">
@@ -17351,27 +17351,27 @@
         <v>3.3673999999999999</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.22044</v>
       </c>
       <c r="Z60" s="1">
-        <f>AVERAGE(A60,I60,Q60)</f>
+        <f t="shared" si="14"/>
         <v>1.4869666666666665</v>
       </c>
       <c r="AA60" s="1">
+        <f t="shared" si="15"/>
+        <v>1.8737666666666666</v>
+      </c>
+      <c r="AB60" s="1">
+        <f t="shared" si="16"/>
+        <v>5.8293999999999997</v>
+      </c>
+      <c r="AC60" s="1">
+        <f t="shared" si="12"/>
+        <v>2.1039999999999996</v>
+      </c>
+      <c r="AD60" s="1">
         <f t="shared" si="13"/>
-        <v>1.8737666666666666</v>
-      </c>
-      <c r="AB60" s="1">
-        <f t="shared" si="14"/>
-        <v>5.8293999999999997</v>
-      </c>
-      <c r="AC60" s="1">
-        <f t="shared" si="11"/>
-        <v>2.1039999999999996</v>
-      </c>
-      <c r="AD60" s="1">
-        <f t="shared" si="12"/>
         <v>4.8854666666666668</v>
       </c>
       <c r="AN60" s="1">
@@ -17407,7 +17407,7 @@
         <v>3.9979</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7398599999999993</v>
       </c>
       <c r="I61" s="1">
@@ -17426,7 +17426,7 @@
         <v>4.2351999999999999</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8606600000000002</v>
       </c>
       <c r="Q61" s="1">
@@ -17445,27 +17445,27 @@
         <v>4.8666</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2868399999999993</v>
       </c>
       <c r="Z61" s="1">
-        <f>AVERAGE(A61,I61,Q61)</f>
+        <f t="shared" si="14"/>
         <v>3.3207333333333331</v>
       </c>
       <c r="AA61" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5254333333333334</v>
+      </c>
+      <c r="AB61" s="1">
+        <f t="shared" si="16"/>
+        <v>4.0854666666666661</v>
+      </c>
+      <c r="AC61" s="1">
+        <f t="shared" si="12"/>
+        <v>2.180733333333333</v>
+      </c>
+      <c r="AD61" s="1">
         <f t="shared" si="13"/>
-        <v>2.5254333333333334</v>
-      </c>
-      <c r="AB61" s="1">
-        <f t="shared" si="14"/>
-        <v>4.0854666666666661</v>
-      </c>
-      <c r="AC61" s="1">
-        <f t="shared" si="11"/>
-        <v>2.180733333333333</v>
-      </c>
-      <c r="AD61" s="1">
-        <f t="shared" si="12"/>
         <v>4.3665666666666665</v>
       </c>
       <c r="AN61" s="1">
@@ -17506,7 +17506,7 @@
         <v>2.9092783333333334</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1078416666666664</v>
       </c>
       <c r="I62" s="1">
@@ -17525,7 +17525,7 @@
         <v>6.3131000000000004</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9221200000000005</v>
       </c>
       <c r="Q62" s="1">
@@ -17544,27 +17544,27 @@
         <v>4.4244000000000003</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.30308</v>
       </c>
       <c r="Z62" s="1">
-        <f>AVERAGE(A62,I62,Q62)</f>
+        <f t="shared" si="14"/>
         <v>1.8128233333333335</v>
       </c>
       <c r="AA62" s="1">
+        <f t="shared" si="15"/>
+        <v>1.8486294444444447</v>
+      </c>
+      <c r="AB62" s="1">
+        <f t="shared" si="16"/>
+        <v>3.7183705555555555</v>
+      </c>
+      <c r="AC62" s="1">
+        <f t="shared" si="12"/>
+        <v>1.959653333333333</v>
+      </c>
+      <c r="AD62" s="1">
         <f t="shared" si="13"/>
-        <v>1.8486294444444447</v>
-      </c>
-      <c r="AB62" s="1">
-        <f t="shared" si="14"/>
-        <v>3.7183705555555555</v>
-      </c>
-      <c r="AC62" s="1">
-        <f t="shared" si="11"/>
-        <v>1.959653333333333</v>
-      </c>
-      <c r="AD62" s="1">
-        <f t="shared" si="12"/>
         <v>4.5489261111111112</v>
       </c>
       <c r="AN62" s="1">
@@ -17600,7 +17600,7 @@
         <v>1.9614</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8222800000000006</v>
       </c>
       <c r="I63" s="1">
@@ -17619,7 +17619,7 @@
         <v>2.3089</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9659599999999999</v>
       </c>
       <c r="Q63" s="1">
@@ -17638,27 +17638,27 @@
         <v>6.8944999999999999</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3530000000000002</v>
       </c>
       <c r="Z63" s="1">
-        <f>AVERAGE(A63,I63,Q63)</f>
+        <f t="shared" si="14"/>
         <v>0.90910000000000002</v>
       </c>
       <c r="AA63" s="1">
+        <f t="shared" si="15"/>
+        <v>0.72273333333333323</v>
+      </c>
+      <c r="AB63" s="1">
+        <f t="shared" si="16"/>
+        <v>11.6441</v>
+      </c>
+      <c r="AC63" s="1">
+        <f t="shared" si="12"/>
+        <v>-9.5466666666666644E-2</v>
+      </c>
+      <c r="AD63" s="1">
         <f t="shared" si="13"/>
-        <v>0.72273333333333323</v>
-      </c>
-      <c r="AB63" s="1">
-        <f t="shared" si="14"/>
-        <v>11.6441</v>
-      </c>
-      <c r="AC63" s="1">
-        <f t="shared" si="11"/>
-        <v>-9.5466666666666644E-2</v>
-      </c>
-      <c r="AD63" s="1">
-        <f t="shared" si="12"/>
         <v>3.7216</v>
       </c>
       <c r="AN63" s="1">
@@ -17694,7 +17694,7 @@
         <v>0.89539999999999997</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8567200000000001</v>
       </c>
       <c r="I64" s="1">
@@ -17718,7 +17718,7 @@
         <v>2.0376548387096771</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.343730322580645</v>
       </c>
       <c r="Q64" s="1">
@@ -17737,27 +17737,27 @@
         <v>7.3064999999999998</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3749200000000004</v>
       </c>
       <c r="Z64" s="1">
-        <f>AVERAGE(A64,I64,Q64)</f>
+        <f t="shared" si="14"/>
         <v>2.0828311827956991</v>
       </c>
       <c r="AA64" s="1">
+        <f t="shared" si="15"/>
+        <v>0.76238655913978493</v>
+      </c>
+      <c r="AB64" s="1">
+        <f t="shared" si="16"/>
+        <v>7.931219892473119</v>
+      </c>
+      <c r="AC64" s="1">
+        <f t="shared" si="12"/>
+        <v>0.1026612903225806</v>
+      </c>
+      <c r="AD64" s="1">
         <f t="shared" si="13"/>
-        <v>0.76238655913978493</v>
-      </c>
-      <c r="AB64" s="1">
-        <f t="shared" si="14"/>
-        <v>7.931219892473119</v>
-      </c>
-      <c r="AC64" s="1">
-        <f t="shared" si="11"/>
-        <v>0.1026612903225806</v>
-      </c>
-      <c r="AD64" s="1">
-        <f t="shared" si="12"/>
         <v>3.4131849462365587</v>
       </c>
       <c r="AN64" s="1">
@@ -17793,7 +17793,7 @@
         <v>2.5421999999999998</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8569599999999999</v>
       </c>
       <c r="I65" s="1">
@@ -17812,7 +17812,7 @@
         <v>1</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0104799999999998</v>
       </c>
       <c r="Q65" s="1">
@@ -17836,27 +17836,27 @@
         <v>2.6152174603174601</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7635238095238095</v>
       </c>
       <c r="Z65" s="1">
-        <f>AVERAGE(A65,I65,Q65)</f>
+        <f t="shared" si="14"/>
         <v>4.6490677248677246</v>
       </c>
       <c r="AA65" s="1">
+        <f t="shared" si="15"/>
+        <v>1.2930222222222223</v>
+      </c>
+      <c r="AB65" s="1">
+        <f t="shared" si="16"/>
+        <v>5.1717058201058199</v>
+      </c>
+      <c r="AC65" s="1">
+        <f t="shared" si="12"/>
+        <v>1.2186714285714286</v>
+      </c>
+      <c r="AD65" s="1">
         <f t="shared" si="13"/>
-        <v>1.2930222222222223</v>
-      </c>
-      <c r="AB65" s="1">
-        <f t="shared" si="14"/>
-        <v>5.1717058201058199</v>
-      </c>
-      <c r="AC65" s="1">
-        <f t="shared" si="11"/>
-        <v>1.2186714285714286</v>
-      </c>
-      <c r="AD65" s="1">
-        <f t="shared" si="12"/>
         <v>2.0524724867724866</v>
       </c>
       <c r="AN65" s="1">
@@ -17892,7 +17892,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" ref="F66:F97" si="15">AVERAGE(A66:E66)</f>
+        <f t="shared" ref="F66:F97" si="17">AVERAGE(A66:E66)</f>
         <v>3.8641800000000002</v>
       </c>
       <c r="I66" s="1">
@@ -17911,7 +17911,7 @@
         <v>4.3352000000000004</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" ref="N66:N97" si="16">AVERAGE(I66:M66)</f>
+        <f t="shared" ref="N66:N97" si="18">AVERAGE(I66:M66)</f>
         <v>3.0143</v>
       </c>
       <c r="Q66" s="1">
@@ -17930,27 +17930,27 @@
         <v>3.9979</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" ref="V66:V97" si="17">AVERAGE(Q66:U66)</f>
+        <f t="shared" ref="V66:V97" si="19">AVERAGE(Q66:U66)</f>
         <v>3.4440999999999997</v>
       </c>
       <c r="Z66" s="1">
-        <f>AVERAGE(A66,I66,Q66)</f>
+        <f t="shared" si="14"/>
         <v>4.0310666666666668</v>
       </c>
       <c r="AA66" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.4250333333333334</v>
       </c>
       <c r="AB66" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.8405666666666667</v>
       </c>
       <c r="AC66" s="1">
-        <f t="shared" ref="AC66:AC97" si="18">AVERAGE(D66,L66,T66)</f>
+        <f t="shared" ref="AC66:AC97" si="20">AVERAGE(D66,L66,T66)</f>
         <v>2.9462333333333333</v>
       </c>
       <c r="AD66" s="1">
-        <f t="shared" ref="AD66:AD97" si="19">AVERAGE(E66,M66,U66)</f>
+        <f t="shared" ref="AD66:AD97" si="21">AVERAGE(E66,M66,U66)</f>
         <v>4.9614000000000003</v>
       </c>
       <c r="AN66" s="1">
@@ -17986,7 +17986,7 @@
         <v>3.2631999999999999</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.8890400000000001</v>
       </c>
       <c r="I67" s="1">
@@ -18005,7 +18005,7 @@
         <v>4</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.0651600000000001</v>
       </c>
       <c r="Q67" s="1">
@@ -18024,27 +18024,27 @@
         <v>5</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.4474400000000003</v>
       </c>
       <c r="Z67" s="1">
-        <f>AVERAGE(A67,I67,Q67)</f>
+        <f t="shared" si="14"/>
         <v>5.1768999999999998</v>
       </c>
       <c r="AA67" s="1">
-        <f t="shared" ref="AA67:AA98" si="20">AVERAGE(B67,J67,R67)</f>
+        <f t="shared" ref="AA67:AA98" si="22">AVERAGE(B67,J67,R67)</f>
         <v>3.1035000000000004</v>
       </c>
       <c r="AB67" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.1837</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.7842333333333333</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.0877333333333334</v>
       </c>
       <c r="AN67" s="1">
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.9297399999999998</v>
       </c>
       <c r="I68" s="1">
@@ -18099,7 +18099,7 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.0915800000000004</v>
       </c>
       <c r="Q68" s="1">
@@ -18118,27 +18118,27 @@
         <v>3.6667000000000001</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.4950000000000001</v>
       </c>
       <c r="Z68" s="1">
-        <f>AVERAGE(A68,I68,Q68)</f>
+        <f t="shared" si="14"/>
         <v>6.0051999999999994</v>
       </c>
       <c r="AA68" s="1">
+        <f t="shared" si="22"/>
+        <v>2.857566666666667</v>
+      </c>
+      <c r="AB68" s="1">
+        <f t="shared" si="16"/>
+        <v>3.0059</v>
+      </c>
+      <c r="AC68" s="1">
         <f t="shared" si="20"/>
-        <v>2.857566666666667</v>
-      </c>
-      <c r="AB68" s="1">
-        <f t="shared" si="14"/>
-        <v>3.0059</v>
-      </c>
-      <c r="AC68" s="1">
-        <f t="shared" si="18"/>
         <v>2.7352666666666665</v>
       </c>
       <c r="AD68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.9232666666666667</v>
       </c>
       <c r="AN68" s="1">
@@ -18174,7 +18174,7 @@
         <v>3.1819999999999999</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.9466199999999994</v>
       </c>
       <c r="I69" s="1">
@@ -18193,7 +18193,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.09998</v>
       </c>
       <c r="Q69" s="1">
@@ -18212,27 +18212,27 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.5572599999999994</v>
       </c>
       <c r="Z69" s="1">
-        <f>AVERAGE(A69,I69,Q69)</f>
+        <f t="shared" si="14"/>
         <v>7.5058666666666669</v>
       </c>
       <c r="AA69" s="1">
+        <f t="shared" si="22"/>
+        <v>3.3006333333333333</v>
+      </c>
+      <c r="AB69" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
         <f t="shared" si="20"/>
-        <v>3.3006333333333333</v>
-      </c>
-      <c r="AB69" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="1">
-        <f t="shared" si="18"/>
         <v>2.8888999999999996</v>
       </c>
       <c r="AD69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.9777</v>
       </c>
       <c r="AN69" s="1">
@@ -18268,7 +18268,7 @@
         <v>1.0632999999999999</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.01464</v>
       </c>
       <c r="I70" s="1">
@@ -18287,7 +18287,7 @@
         <v>4.0952999999999999</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.1894399999999998</v>
       </c>
       <c r="Q70" s="1">
@@ -18306,26 +18306,26 @@
         <v>4.8666</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.61456</v>
       </c>
       <c r="Z70" s="1">
         <v>10.737</v>
       </c>
       <c r="AA70" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8536333333333335</v>
+      </c>
+      <c r="AB70" s="1">
+        <f t="shared" si="16"/>
+        <v>5.1895999999999995</v>
+      </c>
+      <c r="AC70" s="1">
         <f t="shared" si="20"/>
-        <v>1.8536333333333335</v>
-      </c>
-      <c r="AB70" s="1">
-        <f t="shared" si="14"/>
-        <v>5.1895999999999995</v>
-      </c>
-      <c r="AC70" s="1">
-        <f t="shared" si="18"/>
         <v>2.1017000000000001</v>
       </c>
       <c r="AD70" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.3417333333333334</v>
       </c>
       <c r="AN70" s="1">
@@ -18361,7 +18361,7 @@
         <v>7.3064999999999998</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.0394600000000001</v>
       </c>
       <c r="I71" s="1">
@@ -18380,7 +18380,7 @@
         <v>2.2218</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.2352599999999994</v>
       </c>
       <c r="Q71" s="1">
@@ -18399,27 +18399,27 @@
         <v>1.7135</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.6577799999999998</v>
       </c>
       <c r="Z71" s="1">
-        <f>AVERAGE(A71,I71,Q71)</f>
+        <f t="shared" ref="Z71:Z102" si="23">AVERAGE(A71,I71,Q71)</f>
         <v>3.8915999999999999</v>
       </c>
       <c r="AA71" s="1">
+        <f t="shared" si="22"/>
+        <v>1.2917000000000001</v>
+      </c>
+      <c r="AB71" s="1">
+        <f t="shared" si="16"/>
+        <v>8.6693666666666669</v>
+      </c>
+      <c r="AC71" s="1">
         <f t="shared" si="20"/>
-        <v>1.2917000000000001</v>
-      </c>
-      <c r="AB71" s="1">
-        <f t="shared" si="14"/>
-        <v>8.6693666666666669</v>
-      </c>
-      <c r="AC71" s="1">
-        <f t="shared" si="18"/>
         <v>0.62090000000000001</v>
       </c>
       <c r="AD71" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.7472666666666665</v>
       </c>
       <c r="AN71" s="1">
@@ -18455,7 +18455,7 @@
         <v>3.5886999999999998</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.1321199999999996</v>
       </c>
       <c r="I72" s="1">
@@ -18474,7 +18474,7 @@
         <v>4.8666</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.2673999999999999</v>
       </c>
       <c r="Q72" s="1">
@@ -18493,27 +18493,27 @@
         <v>3</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.6618599999999999</v>
       </c>
       <c r="Z72" s="1">
-        <f>AVERAGE(A72,I72,Q72)</f>
+        <f t="shared" si="23"/>
         <v>3.5484333333333331</v>
       </c>
       <c r="AA72" s="1">
+        <f t="shared" si="22"/>
+        <v>3.4611333333333332</v>
+      </c>
+      <c r="AB72" s="1">
+        <f t="shared" si="16"/>
+        <v>3.9888333333333335</v>
+      </c>
+      <c r="AC72" s="1">
         <f t="shared" si="20"/>
-        <v>3.4611333333333332</v>
-      </c>
-      <c r="AB72" s="1">
-        <f t="shared" si="14"/>
-        <v>3.9888333333333335</v>
-      </c>
-      <c r="AC72" s="1">
-        <f t="shared" si="18"/>
         <v>3.6188000000000002</v>
       </c>
       <c r="AD72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.8184333333333331</v>
       </c>
       <c r="AN72" s="1">
@@ -18549,7 +18549,7 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.1456999999999997</v>
       </c>
       <c r="I73" s="1">
@@ -18568,7 +18568,7 @@
         <v>2.5</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.3036199999999996</v>
       </c>
       <c r="Q73" s="1">
@@ -18587,27 +18587,27 @@
         <v>4.6906999999999996</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.6969000000000003</v>
       </c>
       <c r="Z73" s="1">
-        <f>AVERAGE(A73,I73,Q73)</f>
+        <f t="shared" si="23"/>
         <v>2.8889</v>
       </c>
       <c r="AA73" s="1">
+        <f t="shared" si="22"/>
+        <v>3.9057666666666666</v>
+      </c>
+      <c r="AB73" s="1">
+        <f t="shared" si="16"/>
+        <v>3.4020666666666668</v>
+      </c>
+      <c r="AC73" s="1">
         <f t="shared" si="20"/>
-        <v>3.9057666666666666</v>
-      </c>
-      <c r="AB73" s="1">
-        <f t="shared" si="14"/>
-        <v>3.4020666666666668</v>
-      </c>
-      <c r="AC73" s="1">
-        <f t="shared" si="18"/>
         <v>3.5640333333333332</v>
       </c>
       <c r="AD73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.8162666666666665</v>
       </c>
       <c r="AN73" s="1">
@@ -18643,7 +18643,7 @@
         <v>4</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.1701600000000001</v>
       </c>
       <c r="I74" s="1">
@@ -18662,7 +18662,7 @@
         <v>2.3332999999999999</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.31854</v>
       </c>
       <c r="Q74" s="1">
@@ -18681,27 +18681,27 @@
         <v>0.69359999999999999</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.7126999999999994</v>
       </c>
       <c r="Z74" s="1">
-        <f>AVERAGE(A74,I74,Q74)</f>
+        <f t="shared" si="23"/>
         <v>7.9947333333333335</v>
       </c>
       <c r="AA74" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7685000000000002</v>
+      </c>
+      <c r="AB74" s="1">
+        <f t="shared" si="16"/>
+        <v>4.3673999999999999</v>
+      </c>
+      <c r="AC74" s="1">
         <f t="shared" si="20"/>
-        <v>1.7685000000000002</v>
-      </c>
-      <c r="AB74" s="1">
-        <f t="shared" si="14"/>
-        <v>4.3673999999999999</v>
-      </c>
-      <c r="AC74" s="1">
-        <f t="shared" si="18"/>
         <v>2.1960666666666668</v>
       </c>
       <c r="AD74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.3422999999999998</v>
       </c>
       <c r="AN74" s="1">
@@ -18737,7 +18737,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.1954399999999996</v>
       </c>
       <c r="I75" s="1">
@@ -18756,7 +18756,7 @@
         <v>10.061</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.3835799999999998</v>
       </c>
       <c r="Q75" s="1">
@@ -18775,27 +18775,27 @@
         <v>8.1555</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.7917399999999999</v>
       </c>
       <c r="Z75" s="1">
-        <f>AVERAGE(A75,I75,Q75)</f>
+        <f t="shared" si="23"/>
         <v>2.5506666666666664</v>
       </c>
       <c r="AA75" s="1">
+        <f t="shared" si="22"/>
+        <v>2.3408000000000002</v>
+      </c>
+      <c r="AB75" s="1">
+        <f t="shared" si="16"/>
+        <v>4.1819666666666668</v>
+      </c>
+      <c r="AC75" s="1">
         <f t="shared" si="20"/>
-        <v>2.3408000000000002</v>
-      </c>
-      <c r="AB75" s="1">
-        <f t="shared" si="14"/>
-        <v>4.1819666666666668</v>
-      </c>
-      <c r="AC75" s="1">
-        <f t="shared" si="18"/>
         <v>2.8056666666666668</v>
       </c>
       <c r="AD75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.0721666666666669</v>
       </c>
       <c r="AN75" s="1">
@@ -18831,7 +18831,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.2835400000000003</v>
       </c>
       <c r="I76" s="1">
@@ -18850,7 +18850,7 @@
         <v>0.58640000000000003</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.4281800000000002</v>
       </c>
       <c r="Q76" s="1">
@@ -18869,27 +18869,27 @@
         <v>2.1724999999999999</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.835</v>
       </c>
       <c r="Z76" s="1">
-        <f>AVERAGE(A76,I76,Q76)</f>
+        <f t="shared" si="23"/>
         <v>4.7528666666666668</v>
       </c>
       <c r="AA76" s="1">
+        <f t="shared" si="22"/>
+        <v>2.2689333333333335</v>
+      </c>
+      <c r="AB76" s="1">
+        <f t="shared" si="16"/>
+        <v>6.1101666666666672</v>
+      </c>
+      <c r="AC76" s="1">
         <f t="shared" si="20"/>
-        <v>2.2689333333333335</v>
-      </c>
-      <c r="AB76" s="1">
-        <f t="shared" si="14"/>
-        <v>6.1101666666666672</v>
-      </c>
-      <c r="AC76" s="1">
-        <f t="shared" si="18"/>
         <v>3.0092333333333339</v>
       </c>
       <c r="AD76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.1033333333333335</v>
       </c>
       <c r="AN76" s="1">
@@ -18925,7 +18925,7 @@
         <v>5</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.3368000000000002</v>
       </c>
       <c r="I77" s="1">
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.4512399999999999</v>
       </c>
       <c r="Q77" s="1">
@@ -18963,27 +18963,27 @@
         <v>5</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.9545400000000002</v>
       </c>
       <c r="Z77" s="1">
-        <f>AVERAGE(A77,I77,Q77)</f>
+        <f t="shared" si="23"/>
         <v>4.7525666666666666</v>
       </c>
       <c r="AA77" s="1">
+        <f t="shared" si="22"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AB77" s="1">
+        <f t="shared" si="16"/>
+        <v>6.2002666666666668</v>
+      </c>
+      <c r="AC77" s="1">
         <f t="shared" si="20"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AB77" s="1">
-        <f t="shared" si="14"/>
-        <v>6.2002666666666668</v>
-      </c>
-      <c r="AC77" s="1">
-        <f t="shared" si="18"/>
         <v>2.6181333333333332</v>
       </c>
       <c r="AD77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AN77" s="1">
@@ -19019,7 +19019,7 @@
         <v>3.4998</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.3515199999999998</v>
       </c>
       <c r="I78" s="1">
@@ -19038,7 +19038,7 @@
         <v>3.6667000000000001</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.4950000000000001</v>
       </c>
       <c r="Q78" s="1">
@@ -19057,27 +19057,27 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.9708799999999997</v>
       </c>
       <c r="Z78" s="1">
-        <f>AVERAGE(A78,I78,Q78)</f>
+        <f t="shared" si="23"/>
         <v>5.7946999999999997</v>
       </c>
       <c r="AA78" s="1">
+        <f t="shared" si="22"/>
+        <v>3.1218333333333335</v>
+      </c>
+      <c r="AB78" s="1">
+        <f t="shared" ref="AB78:AB84" si="24">AVERAGE(C78,K78,S78)</f>
+        <v>2.4193666666666664</v>
+      </c>
+      <c r="AC78" s="1">
         <f t="shared" si="20"/>
-        <v>3.1218333333333335</v>
-      </c>
-      <c r="AB78" s="1">
-        <f t="shared" ref="AB78:AB84" si="21">AVERAGE(C78,K78,S78)</f>
-        <v>2.4193666666666664</v>
-      </c>
-      <c r="AC78" s="1">
-        <f t="shared" si="18"/>
         <v>2.9650333333333339</v>
       </c>
       <c r="AD78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.3947333333333338</v>
       </c>
       <c r="AN78" s="1">
@@ -19113,7 +19113,7 @@
         <v>4.2351999999999999</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.3549600000000002</v>
       </c>
       <c r="I79" s="1">
@@ -19132,7 +19132,7 @@
         <v>4.8387000000000002</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.52996</v>
       </c>
       <c r="Q79" s="1">
@@ -19151,27 +19151,27 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.0168599999999994</v>
       </c>
       <c r="Z79" s="1">
-        <f>AVERAGE(A79,I79,Q79)</f>
+        <f t="shared" si="23"/>
         <v>4.5660999999999996</v>
       </c>
       <c r="AA79" s="1">
+        <f t="shared" si="22"/>
+        <v>3.6025333333333336</v>
+      </c>
+      <c r="AB79" s="1">
+        <f t="shared" si="24"/>
+        <v>2.8567999999999998</v>
+      </c>
+      <c r="AC79" s="1">
         <f t="shared" si="20"/>
         <v>3.6025333333333336</v>
       </c>
-      <c r="AB79" s="1">
+      <c r="AD79" s="1">
         <f t="shared" si="21"/>
-        <v>2.8567999999999998</v>
-      </c>
-      <c r="AC79" s="1">
-        <f t="shared" si="18"/>
-        <v>3.6025333333333336</v>
-      </c>
-      <c r="AD79" s="1">
-        <f t="shared" si="19"/>
         <v>5.208333333333333</v>
       </c>
       <c r="AN79" s="1">
@@ -19207,7 +19207,7 @@
         <v>3.5</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.42218</v>
       </c>
       <c r="I80" s="1">
@@ -19226,7 +19226,7 @@
         <v>3.5102000000000002</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.5420400000000001</v>
       </c>
       <c r="Q80" s="1">
@@ -19245,27 +19245,27 @@
         <v>4.8666</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.0168599999999994</v>
       </c>
       <c r="Z80" s="1">
-        <f>AVERAGE(A80,I80,Q80)</f>
+        <f t="shared" si="23"/>
         <v>3.9707333333333334</v>
       </c>
       <c r="AA80" s="1">
+        <f t="shared" si="22"/>
+        <v>5.071133333333333</v>
+      </c>
+      <c r="AB80" s="1">
+        <f t="shared" si="24"/>
+        <v>2.6993000000000005</v>
+      </c>
+      <c r="AC80" s="1">
         <f t="shared" si="20"/>
-        <v>5.071133333333333</v>
-      </c>
-      <c r="AB80" s="1">
+        <v>4.2683666666666662</v>
+      </c>
+      <c r="AD80" s="1">
         <f t="shared" si="21"/>
-        <v>2.6993000000000005</v>
-      </c>
-      <c r="AC80" s="1">
-        <f t="shared" si="18"/>
-        <v>4.2683666666666662</v>
-      </c>
-      <c r="AD80" s="1">
-        <f t="shared" si="19"/>
         <v>3.958933333333333</v>
       </c>
       <c r="AN80" s="1">
@@ -19301,7 +19301,7 @@
         <v>5.9710000000000001</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.52074</v>
       </c>
       <c r="I81" s="1">
@@ -19320,7 +19320,7 @@
         <v>5.5217000000000001</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.5813000000000001</v>
       </c>
       <c r="Q81" s="1">
@@ -19339,27 +19339,27 @@
         <v>2.8075999999999999</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.02616</v>
       </c>
       <c r="Z81" s="1">
-        <f>AVERAGE(A81,I81,Q81)</f>
+        <f t="shared" si="23"/>
         <v>1.5532000000000001</v>
       </c>
       <c r="AA81" s="1">
+        <f t="shared" si="22"/>
+        <v>2.3602666666666665</v>
+      </c>
+      <c r="AB81" s="1">
+        <f t="shared" si="24"/>
+        <v>8.9850666666666665</v>
+      </c>
+      <c r="AC81" s="1">
         <f t="shared" si="20"/>
-        <v>2.3602666666666665</v>
-      </c>
-      <c r="AB81" s="1">
+        <v>2.5483666666666669</v>
+      </c>
+      <c r="AD81" s="1">
         <f t="shared" si="21"/>
-        <v>8.9850666666666665</v>
-      </c>
-      <c r="AC81" s="1">
-        <f t="shared" si="18"/>
-        <v>2.5483666666666669</v>
-      </c>
-      <c r="AD81" s="1">
-        <f t="shared" si="19"/>
         <v>4.7667666666666664</v>
       </c>
       <c r="AN81" s="1">
@@ -19395,7 +19395,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.5460000000000003</v>
       </c>
       <c r="I82" s="1">
@@ -19414,7 +19414,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.5915399999999997</v>
       </c>
       <c r="Q82" s="1">
@@ -19433,27 +19433,27 @@
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.0297399999999994</v>
       </c>
       <c r="Z82" s="1">
-        <f>AVERAGE(A82,I82,Q82)</f>
+        <f t="shared" si="23"/>
         <v>4.2199</v>
       </c>
       <c r="AA82" s="1">
+        <f t="shared" si="22"/>
+        <v>4.1738999999999997</v>
+      </c>
+      <c r="AB82" s="1">
+        <f t="shared" si="24"/>
+        <v>5.4252666666666665</v>
+      </c>
+      <c r="AC82" s="1">
         <f t="shared" si="20"/>
-        <v>4.1738999999999997</v>
-      </c>
-      <c r="AB82" s="1">
+        <v>3.4538333333333338</v>
+      </c>
+      <c r="AD82" s="1">
         <f t="shared" si="21"/>
-        <v>5.4252666666666665</v>
-      </c>
-      <c r="AC82" s="1">
-        <f t="shared" si="18"/>
-        <v>3.4538333333333338</v>
-      </c>
-      <c r="AD82" s="1">
-        <f t="shared" si="19"/>
         <v>3.0059</v>
       </c>
       <c r="AN82" s="1">
@@ -19489,7 +19489,7 @@
         <v>6.3639999999999999</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.6225000000000005</v>
       </c>
       <c r="I83" s="1">
@@ -19508,7 +19508,7 @@
         <v>1.0934999999999999</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.7098999999999998</v>
       </c>
       <c r="Q83" s="1">
@@ -19527,27 +19527,27 @@
         <v>3.2631999999999999</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.0917000000000012</v>
       </c>
       <c r="Z83" s="1">
-        <f>AVERAGE(A83,I83,Q83)</f>
+        <f t="shared" si="23"/>
         <v>1.2606666666666666</v>
       </c>
       <c r="AA83" s="1">
+        <f t="shared" si="22"/>
+        <v>0.63053333333333328</v>
+      </c>
+      <c r="AB83" s="1">
+        <f t="shared" si="24"/>
+        <v>15.878666666666668</v>
+      </c>
+      <c r="AC83" s="1">
         <f t="shared" si="20"/>
-        <v>0.63053333333333328</v>
-      </c>
-      <c r="AB83" s="1">
+        <v>-0.63660000000000005</v>
+      </c>
+      <c r="AD83" s="1">
         <f t="shared" si="21"/>
-        <v>15.878666666666668</v>
-      </c>
-      <c r="AC83" s="1">
-        <f t="shared" si="18"/>
-        <v>-0.63660000000000005</v>
-      </c>
-      <c r="AD83" s="1">
-        <f t="shared" si="19"/>
         <v>3.5735666666666663</v>
       </c>
       <c r="AN83" s="1">
@@ -19583,7 +19583,7 @@
         <v>3.7389999999999999</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.6319999999999997</v>
       </c>
       <c r="I84" s="1">
@@ -19602,7 +19602,7 @@
         <v>4.4244000000000003</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.7872399999999997</v>
       </c>
       <c r="Q84" s="1">
@@ -19621,27 +19621,27 @@
         <v>3.5886999999999998</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.1321199999999996</v>
       </c>
       <c r="Z84" s="1">
-        <f>AVERAGE(A84,I84,Q84)</f>
+        <f t="shared" si="23"/>
         <v>5.1918999999999995</v>
       </c>
       <c r="AA84" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7138666666666664</v>
+      </c>
+      <c r="AB84" s="1">
+        <f t="shared" si="24"/>
+        <v>7.6282666666666659</v>
+      </c>
+      <c r="AC84" s="1">
         <f t="shared" si="20"/>
-        <v>1.7138666666666664</v>
-      </c>
-      <c r="AB84" s="1">
+        <v>2.4675333333333334</v>
+      </c>
+      <c r="AD84" s="1">
         <f t="shared" si="21"/>
-        <v>7.6282666666666659</v>
-      </c>
-      <c r="AC84" s="1">
-        <f t="shared" si="18"/>
-        <v>2.4675333333333334</v>
-      </c>
-      <c r="AD84" s="1">
-        <f t="shared" si="19"/>
         <v>3.9173666666666662</v>
       </c>
       <c r="AN84" s="1">
@@ -19677,7 +19677,7 @@
         <v>4</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.6550799999999999</v>
       </c>
       <c r="I85" s="1">
@@ -19696,7 +19696,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.9708799999999997</v>
       </c>
       <c r="Q85" s="1">
@@ -19715,26 +19715,26 @@
         <v>5.1882999999999999</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.1839399999999998</v>
       </c>
       <c r="Z85" s="1">
-        <f>AVERAGE(A85,I85,Q85)</f>
+        <f t="shared" si="23"/>
         <v>4.118266666666667</v>
       </c>
       <c r="AA85" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.1618333333333331</v>
       </c>
       <c r="AB85" s="1">
         <v>11.645</v>
       </c>
       <c r="AC85" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.2812999999999999</v>
       </c>
       <c r="AD85" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0686666666666662</v>
       </c>
       <c r="AN85" s="1">
@@ -19770,7 +19770,7 @@
         <v>4.6906999999999996</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.6631</v>
       </c>
       <c r="I86" s="1">
@@ -19789,7 +19789,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.9708799999999997</v>
       </c>
       <c r="Q86" s="1">
@@ -19808,27 +19808,27 @@
         <v>3.4998</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.1985000000000001</v>
       </c>
       <c r="Z86" s="1">
-        <f>AVERAGE(A86,I86,Q86)</f>
+        <f t="shared" si="23"/>
         <v>4.8035999999999994</v>
       </c>
       <c r="AA86" s="1">
+        <f t="shared" si="22"/>
+        <v>3.7450666666666663</v>
+      </c>
+      <c r="AB86" s="1">
+        <f t="shared" ref="AB86:AB117" si="25">AVERAGE(C86,K86,S86)</f>
+        <v>4.8138333333333341</v>
+      </c>
+      <c r="AC86" s="1">
         <f t="shared" si="20"/>
-        <v>3.7450666666666663</v>
-      </c>
-      <c r="AB86" s="1">
-        <f t="shared" ref="AB86:AB117" si="22">AVERAGE(C86,K86,S86)</f>
-        <v>4.8138333333333341</v>
-      </c>
-      <c r="AC86" s="1">
-        <f t="shared" si="18"/>
         <v>3.1111</v>
       </c>
       <c r="AD86" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9138666666666664</v>
       </c>
       <c r="AN86" s="1">
@@ -19864,7 +19864,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7416799999999997</v>
       </c>
       <c r="I87" s="1">
@@ -19883,7 +19883,7 @@
         <v>2.9043999999999999</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.9738599999999997</v>
       </c>
       <c r="Q87" s="1">
@@ -19902,27 +19902,27 @@
         <v>5</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.2368399999999999</v>
       </c>
       <c r="Z87" s="1">
-        <f>AVERAGE(A87,I87,Q87)</f>
+        <f t="shared" si="23"/>
         <v>6.5733333333333333</v>
       </c>
       <c r="AA87" s="1">
+        <f t="shared" si="22"/>
+        <v>3.2315</v>
+      </c>
+      <c r="AB87" s="1">
+        <f t="shared" si="25"/>
+        <v>4.4082333333333334</v>
+      </c>
+      <c r="AC87" s="1">
         <f t="shared" si="20"/>
-        <v>3.2315</v>
-      </c>
-      <c r="AB87" s="1">
-        <f t="shared" si="22"/>
-        <v>4.4082333333333334</v>
-      </c>
-      <c r="AC87" s="1">
-        <f t="shared" si="18"/>
         <v>3.0727666666666664</v>
       </c>
       <c r="AD87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3014666666666663</v>
       </c>
       <c r="AN87" s="1">
@@ -19958,7 +19958,7 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8447800000000001</v>
       </c>
       <c r="I88" s="1">
@@ -19977,7 +19977,7 @@
         <v>10.061</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.0502599999999997</v>
       </c>
       <c r="Q88" s="1">
@@ -19996,27 +19996,27 @@
         <v>2.8607</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.3052799999999998</v>
       </c>
       <c r="Z88" s="1">
-        <f>AVERAGE(A88,I88,Q88)</f>
+        <f t="shared" si="23"/>
         <v>5.1909333333333327</v>
       </c>
       <c r="AA88" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7666666666666666</v>
+      </c>
+      <c r="AB88" s="1">
+        <f t="shared" si="25"/>
+        <v>6.9361999999999995</v>
+      </c>
+      <c r="AC88" s="1">
         <f t="shared" si="20"/>
-        <v>1.7666666666666666</v>
-      </c>
-      <c r="AB88" s="1">
-        <f t="shared" si="22"/>
-        <v>6.9361999999999995</v>
-      </c>
-      <c r="AC88" s="1">
-        <f t="shared" si="18"/>
         <v>2.0984666666666669</v>
       </c>
       <c r="AD88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.0082666666666675</v>
       </c>
       <c r="AN88" s="1">
@@ -20052,7 +20052,7 @@
         <v>3</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8507800000000003</v>
       </c>
       <c r="I89" s="1">
@@ -20071,7 +20071,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.0641800000000003</v>
       </c>
       <c r="Q89" s="1">
@@ -20090,27 +20090,27 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.345699999999999</v>
       </c>
       <c r="Z89" s="1">
-        <f>AVERAGE(A89,I89,Q89)</f>
+        <f t="shared" si="23"/>
         <v>4.2560000000000002</v>
       </c>
       <c r="AA89" s="1">
+        <f t="shared" si="22"/>
+        <v>3.2014666666666667</v>
+      </c>
+      <c r="AB89" s="1">
+        <f t="shared" si="25"/>
+        <v>6.3179000000000007</v>
+      </c>
+      <c r="AC89" s="1">
         <f t="shared" si="20"/>
-        <v>3.2014666666666667</v>
-      </c>
-      <c r="AB89" s="1">
-        <f t="shared" si="22"/>
-        <v>6.3179000000000007</v>
-      </c>
-      <c r="AC89" s="1">
-        <f t="shared" si="18"/>
         <v>2.7226666666666666</v>
       </c>
       <c r="AD89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6030666666666669</v>
       </c>
       <c r="AN89" s="1">
@@ -20146,7 +20146,7 @@
         <v>6.0414000000000003</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8780799999999997</v>
       </c>
       <c r="I90" s="1">
@@ -20165,7 +20165,7 @@
         <v>3.3692000000000002</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.1806800000000006</v>
       </c>
       <c r="Q90" s="1">
@@ -20184,27 +20184,27 @@
         <v>5.9710000000000001</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.3471600000000006</v>
       </c>
       <c r="Z90" s="1">
-        <f>AVERAGE(A90,I90,Q90)</f>
+        <f t="shared" si="23"/>
         <v>3.4582333333333337</v>
       </c>
       <c r="AA90" s="1">
+        <f t="shared" si="22"/>
+        <v>3.3485333333333336</v>
+      </c>
+      <c r="AB90" s="1">
+        <f t="shared" si="25"/>
+        <v>7.0100333333333333</v>
+      </c>
+      <c r="AC90" s="1">
         <f t="shared" si="20"/>
-        <v>3.3485333333333336</v>
-      </c>
-      <c r="AB90" s="1">
-        <f t="shared" si="22"/>
-        <v>7.0100333333333333</v>
-      </c>
-      <c r="AC90" s="1">
-        <f t="shared" si="18"/>
         <v>3.3992000000000004</v>
       </c>
       <c r="AD90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.1272000000000002</v>
       </c>
       <c r="AN90" s="1">
@@ -20240,7 +20240,7 @@
         <v>6.5983000000000001</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8998000000000008</v>
       </c>
       <c r="I91" s="1">
@@ -20259,7 +20259,7 @@
         <v>1.8028</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.2221000000000002</v>
       </c>
       <c r="Q91" s="1">
@@ -20278,27 +20278,27 @@
         <v>5</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.4892599999999998</v>
       </c>
       <c r="Z91" s="1">
-        <f>AVERAGE(A91,I91,Q91)</f>
+        <f t="shared" si="23"/>
         <v>8.3273666666666664</v>
       </c>
       <c r="AA91" s="1">
+        <f t="shared" si="22"/>
+        <v>2.7060666666666666</v>
+      </c>
+      <c r="AB91" s="1">
+        <f t="shared" si="25"/>
+        <v>4.1975000000000007</v>
+      </c>
+      <c r="AC91" s="1">
         <f t="shared" si="20"/>
-        <v>2.7060666666666666</v>
-      </c>
-      <c r="AB91" s="1">
-        <f t="shared" si="22"/>
-        <v>4.1975000000000007</v>
-      </c>
-      <c r="AC91" s="1">
-        <f t="shared" si="18"/>
         <v>2.9872999999999998</v>
       </c>
       <c r="AD91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.4670333333333332</v>
       </c>
       <c r="AN91" s="1">
@@ -20334,7 +20334,7 @@
         <v>5</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9932999999999996</v>
       </c>
       <c r="I92" s="1">
@@ -20353,7 +20353,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.2976199999999993</v>
       </c>
       <c r="Q92" s="1">
@@ -20372,27 +20372,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.5751000000000008</v>
       </c>
       <c r="Z92" s="1">
-        <f>AVERAGE(A92,I92,Q92)</f>
+        <f t="shared" si="23"/>
         <v>5.9115000000000002</v>
       </c>
       <c r="AA92" s="1">
+        <f t="shared" si="22"/>
+        <v>2.7373666666666665</v>
+      </c>
+      <c r="AB92" s="1">
+        <f t="shared" si="25"/>
+        <v>6.3179000000000007</v>
+      </c>
+      <c r="AC92" s="1">
         <f t="shared" si="20"/>
         <v>2.7373666666666665</v>
       </c>
-      <c r="AB92" s="1">
-        <f t="shared" si="22"/>
-        <v>6.3179000000000007</v>
-      </c>
-      <c r="AC92" s="1">
-        <f t="shared" si="18"/>
-        <v>2.7373666666666665</v>
-      </c>
       <c r="AD92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.4058999999999999</v>
       </c>
       <c r="AN92" s="1">
@@ -20428,7 +20428,7 @@
         <v>6.8944999999999999</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9993999999999996</v>
       </c>
       <c r="I93" s="1">
@@ -20447,7 +20447,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.3537599999999994</v>
       </c>
       <c r="Q93" s="1">
@@ -20466,27 +20466,27 @@
         <v>6.3639999999999999</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.6225000000000005</v>
       </c>
       <c r="Z93" s="1">
-        <f>AVERAGE(A93,I93,Q93)</f>
+        <f t="shared" si="23"/>
         <v>3.9827666666666666</v>
       </c>
       <c r="AA93" s="1">
+        <f t="shared" si="22"/>
+        <v>2.3645666666666667</v>
+      </c>
+      <c r="AB93" s="1">
+        <f t="shared" si="25"/>
+        <v>7.9776666666666669</v>
+      </c>
+      <c r="AC93" s="1">
         <f t="shared" si="20"/>
         <v>2.3645666666666667</v>
       </c>
-      <c r="AB93" s="1">
-        <f t="shared" si="22"/>
-        <v>7.9776666666666669</v>
-      </c>
-      <c r="AC93" s="1">
-        <f t="shared" si="18"/>
-        <v>2.3645666666666667</v>
-      </c>
       <c r="AD93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.6032000000000002</v>
       </c>
       <c r="AN93" s="1">
@@ -20522,7 +20522,7 @@
         <v>4.4922000000000004</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0723600000000006</v>
       </c>
       <c r="I94" s="1">
@@ -20541,7 +20541,7 @@
         <v>-2.6267999999999998</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.4138200000000003</v>
       </c>
       <c r="Q94" s="1">
@@ -20560,27 +20560,27 @@
         <v>6.2529000000000003</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.7782</v>
       </c>
       <c r="Z94" s="1">
-        <f>AVERAGE(A94,I94,Q94)</f>
+        <f t="shared" si="23"/>
         <v>13.885966666666667</v>
       </c>
       <c r="AA94" s="1">
+        <f t="shared" si="22"/>
+        <v>1.2363</v>
+      </c>
+      <c r="AB94" s="1">
+        <f t="shared" si="25"/>
+        <v>5.2670666666666666</v>
+      </c>
+      <c r="AC94" s="1">
         <f t="shared" si="20"/>
-        <v>1.2363</v>
-      </c>
-      <c r="AB94" s="1">
-        <f t="shared" si="22"/>
-        <v>5.2670666666666666</v>
-      </c>
-      <c r="AC94" s="1">
-        <f t="shared" si="18"/>
         <v>0.67853333333333321</v>
       </c>
       <c r="AD94" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.7061000000000006</v>
       </c>
       <c r="AN94" s="1">
@@ -20616,7 +20616,7 @@
         <v>5.3387000000000002</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.1032799999999998</v>
       </c>
       <c r="I95" s="1">
@@ -20635,7 +20635,7 @@
         <v>3</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.4783400000000002</v>
       </c>
       <c r="Q95" s="1">
@@ -20654,27 +20654,27 @@
         <v>2.9043999999999999</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.7985199999999999</v>
       </c>
       <c r="Z95" s="1">
-        <f>AVERAGE(A95,I95,Q95)</f>
+        <f t="shared" si="23"/>
         <v>3.1021999999999998</v>
       </c>
       <c r="AA95" s="1">
+        <f t="shared" si="22"/>
+        <v>2.1087666666666665</v>
+      </c>
+      <c r="AB95" s="1">
+        <f t="shared" si="25"/>
+        <v>12.428066666666666</v>
+      </c>
+      <c r="AC95" s="1">
         <f t="shared" si="20"/>
-        <v>2.1087666666666665</v>
-      </c>
-      <c r="AB95" s="1">
-        <f t="shared" si="22"/>
-        <v>12.428066666666666</v>
-      </c>
-      <c r="AC95" s="1">
-        <f t="shared" si="18"/>
         <v>2.5801666666666665</v>
       </c>
       <c r="AD95" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.7476999999999996</v>
       </c>
       <c r="AN95" s="1">
@@ -20710,7 +20710,7 @@
         <v>4.8666</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.1076999999999995</v>
       </c>
       <c r="I96" s="1">
@@ -20729,7 +20729,7 @@
         <v>5</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.4892599999999998</v>
       </c>
       <c r="Q96" s="1">
@@ -20748,27 +20748,27 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.8447800000000001</v>
       </c>
       <c r="Z96" s="1">
-        <f>AVERAGE(A96,I96,Q96)</f>
+        <f t="shared" si="23"/>
         <v>8.1955000000000009</v>
       </c>
       <c r="AA96" s="1">
+        <f t="shared" si="22"/>
+        <v>2.2777666666666669</v>
+      </c>
+      <c r="AB96" s="1">
+        <f t="shared" si="25"/>
+        <v>4.7069333333333327</v>
+      </c>
+      <c r="AC96" s="1">
         <f t="shared" si="20"/>
-        <v>2.2777666666666669</v>
-      </c>
-      <c r="AB96" s="1">
-        <f t="shared" si="22"/>
-        <v>4.7069333333333327</v>
-      </c>
-      <c r="AC96" s="1">
-        <f t="shared" si="18"/>
         <v>3.8994666666666666</v>
       </c>
       <c r="AD96" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9898999999999996</v>
       </c>
       <c r="AN96" s="1">
@@ -20804,7 +20804,7 @@
         <v>10.061</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.1172400000000007</v>
       </c>
       <c r="I97" s="1">
@@ -20823,7 +20823,7 @@
         <v>5.9710000000000001</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.52074</v>
       </c>
       <c r="Q97" s="1">
@@ -20842,27 +20842,27 @@
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9021999999999997</v>
       </c>
       <c r="Z97" s="1">
-        <f>AVERAGE(A97,I97,Q97)</f>
+        <f t="shared" si="23"/>
         <v>4.450966666666667</v>
       </c>
       <c r="AA97" s="1">
+        <f t="shared" si="22"/>
+        <v>3.8504666666666663</v>
+      </c>
+      <c r="AB97" s="1">
+        <f t="shared" si="25"/>
+        <v>6.2502666666666657</v>
+      </c>
+      <c r="AC97" s="1">
         <f t="shared" si="20"/>
-        <v>3.8504666666666663</v>
-      </c>
-      <c r="AB97" s="1">
-        <f t="shared" si="22"/>
-        <v>6.2502666666666657</v>
-      </c>
-      <c r="AC97" s="1">
-        <f t="shared" si="18"/>
         <v>4.337933333333333</v>
       </c>
       <c r="AD97" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.3440000000000003</v>
       </c>
       <c r="AN97" s="1">
@@ -20898,7 +20898,7 @@
         <v>4.6906999999999996</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" ref="F98:F129" si="23">AVERAGE(A98:E98)</f>
+        <f t="shared" ref="F98:F126" si="26">AVERAGE(A98:E98)</f>
         <v>5.1198399999999999</v>
       </c>
       <c r="I98" s="1">
@@ -20917,7 +20917,7 @@
         <v>13.2247</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" ref="N98:N129" si="24">AVERAGE(I98:M98)</f>
+        <f t="shared" ref="N98:N126" si="27">AVERAGE(I98:M98)</f>
         <v>4.5704000000000002</v>
       </c>
       <c r="Q98" s="1">
@@ -20936,27 +20936,27 @@
         <v>4.3333000000000004</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" ref="V98:V129" si="25">AVERAGE(Q98:U98)</f>
+        <f t="shared" ref="V98:V126" si="28">AVERAGE(Q98:U98)</f>
         <v>4.9102000000000006</v>
       </c>
       <c r="Z98" s="1">
-        <f>AVERAGE(A98,I98,Q98)</f>
+        <f t="shared" si="23"/>
         <v>4.2347999999999999</v>
       </c>
       <c r="AA98" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.1635333333333335</v>
       </c>
       <c r="AB98" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6.5919333333333334</v>
       </c>
       <c r="AC98" s="1">
-        <f t="shared" ref="AC98:AC125" si="26">AVERAGE(D98,L98,T98)</f>
+        <f t="shared" ref="AC98:AC125" si="29">AVERAGE(D98,L98,T98)</f>
         <v>2.9275666666666673</v>
       </c>
       <c r="AD98" s="1">
-        <f t="shared" ref="AD98:AD125" si="27">AVERAGE(E98,M98,U98)</f>
+        <f t="shared" ref="AD98:AD125" si="30">AVERAGE(E98,M98,U98)</f>
         <v>7.4162333333333335</v>
       </c>
       <c r="AN98" s="1">
@@ -20992,7 +20992,7 @@
         <v>4.0952999999999999</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.1882400000000004</v>
       </c>
       <c r="I99" s="1">
@@ -21011,7 +21011,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.6204399999999994</v>
       </c>
       <c r="Q99" s="1">
@@ -21030,27 +21030,27 @@
         <v>4</v>
       </c>
       <c r="V99" s="1">
+        <f t="shared" si="28"/>
+        <v>4.9172600000000006</v>
+      </c>
+      <c r="Z99" s="1">
+        <f t="shared" si="23"/>
+        <v>5.4101666666666661</v>
+      </c>
+      <c r="AA99" s="1">
+        <f t="shared" ref="AA99:AA125" si="31">AVERAGE(B99,J99,R99)</f>
+        <v>4.8314999999999992</v>
+      </c>
+      <c r="AB99" s="1">
         <f t="shared" si="25"/>
-        <v>4.9172600000000006</v>
-      </c>
-      <c r="Z99" s="1">
-        <f>AVERAGE(A99,I99,Q99)</f>
-        <v>5.4101666666666661</v>
-      </c>
-      <c r="AA99" s="1">
-        <f t="shared" ref="AA99:AA125" si="28">AVERAGE(B99,J99,R99)</f>
-        <v>4.8314999999999992</v>
-      </c>
-      <c r="AB99" s="1">
-        <f t="shared" si="22"/>
         <v>5.6898666666666671</v>
       </c>
       <c r="AC99" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.7295666666666665</v>
       </c>
       <c r="AD99" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.882133333333333</v>
       </c>
       <c r="AN99" s="1">
@@ -21086,7 +21086,7 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.2163399999999998</v>
       </c>
       <c r="I100" s="1">
@@ -21105,7 +21105,7 @@
         <v>2.9043999999999999</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.6300600000000003</v>
       </c>
       <c r="Q100" s="1">
@@ -21124,27 +21124,27 @@
         <v>3.9253</v>
       </c>
       <c r="V100" s="1">
+        <f t="shared" si="28"/>
+        <v>4.9182399999999999</v>
+      </c>
+      <c r="Z100" s="1">
+        <f t="shared" si="23"/>
+        <v>4.0860999999999992</v>
+      </c>
+      <c r="AA100" s="1">
+        <f t="shared" si="31"/>
+        <v>1.5847666666666669</v>
+      </c>
+      <c r="AB100" s="1">
         <f t="shared" si="25"/>
-        <v>4.9182399999999999</v>
-      </c>
-      <c r="Z100" s="1">
-        <f>AVERAGE(A100,I100,Q100)</f>
-        <v>4.0860999999999992</v>
-      </c>
-      <c r="AA100" s="1">
-        <f t="shared" si="28"/>
+        <v>12.656166666666669</v>
+      </c>
+      <c r="AC100" s="1">
+        <f t="shared" si="29"/>
         <v>1.5847666666666669</v>
       </c>
-      <c r="AB100" s="1">
-        <f t="shared" si="22"/>
-        <v>12.656166666666669</v>
-      </c>
-      <c r="AC100" s="1">
-        <f t="shared" si="26"/>
-        <v>1.5847666666666669</v>
-      </c>
       <c r="AD100" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.6959333333333335</v>
       </c>
       <c r="AN100" s="1">
@@ -21180,7 +21180,7 @@
         <v>5.9710000000000001</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.2338800000000001</v>
       </c>
       <c r="I101" s="1">
@@ -21199,7 +21199,7 @@
         <v>4.3333000000000004</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.6599599999999999</v>
       </c>
       <c r="Q101" s="1">
@@ -21218,27 +21218,27 @@
         <v>5</v>
       </c>
       <c r="V101" s="1">
+        <f t="shared" si="28"/>
+        <v>4.9932999999999996</v>
+      </c>
+      <c r="Z101" s="1">
+        <f t="shared" si="23"/>
+        <v>9.678700000000001</v>
+      </c>
+      <c r="AA101" s="1">
+        <f t="shared" si="31"/>
+        <v>4.5</v>
+      </c>
+      <c r="AB101" s="1">
         <f t="shared" si="25"/>
-        <v>4.9932999999999996</v>
-      </c>
-      <c r="Z101" s="1">
-        <f>AVERAGE(A101,I101,Q101)</f>
-        <v>9.678700000000001</v>
-      </c>
-      <c r="AA101" s="1">
-        <f t="shared" si="28"/>
-        <v>4.5</v>
-      </c>
-      <c r="AB101" s="1">
-        <f t="shared" si="22"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AC101" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.8651</v>
       </c>
       <c r="AD101" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.1014333333333335</v>
       </c>
       <c r="AN101" s="1">
@@ -21274,7 +21274,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.23874</v>
       </c>
       <c r="I102" s="1">
@@ -21293,7 +21293,7 @@
         <v>3.7389999999999999</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.6688400000000003</v>
       </c>
       <c r="Q102" s="1">
@@ -21312,27 +21312,27 @@
         <v>8.1555</v>
       </c>
       <c r="V102" s="1">
+        <f t="shared" si="28"/>
+        <v>5.0590799999999998</v>
+      </c>
+      <c r="Z102" s="1">
+        <f t="shared" si="23"/>
+        <v>6.3422666666666672</v>
+      </c>
+      <c r="AA102" s="1">
+        <f t="shared" si="31"/>
+        <v>3.5324666666666666</v>
+      </c>
+      <c r="AB102" s="1">
         <f t="shared" si="25"/>
-        <v>5.0590799999999998</v>
-      </c>
-      <c r="Z102" s="1">
-        <f>AVERAGE(A102,I102,Q102)</f>
-        <v>6.3422666666666672</v>
-      </c>
-      <c r="AA102" s="1">
-        <f t="shared" si="28"/>
-        <v>3.5324666666666666</v>
-      </c>
-      <c r="AB102" s="1">
-        <f t="shared" si="22"/>
         <v>5.4802</v>
       </c>
       <c r="AC102" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.4409666666666667</v>
       </c>
       <c r="AD102" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.148533333333333</v>
       </c>
       <c r="AN102" s="1">
@@ -21368,7 +21368,7 @@
         <v>15.294700000000001</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.2629199999999994</v>
       </c>
       <c r="I103" s="1">
@@ -21387,7 +21387,7 @@
         <v>5</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.7416799999999997</v>
       </c>
       <c r="Q103" s="1">
@@ -21406,27 +21406,27 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="V103" s="1">
+        <f t="shared" si="28"/>
+        <v>5.0602999999999998</v>
+      </c>
+      <c r="Z103" s="1">
+        <f t="shared" ref="Z103:Z125" si="32">AVERAGE(A103,I103,Q103)</f>
+        <v>6.0720333333333336</v>
+      </c>
+      <c r="AA103" s="1">
+        <f t="shared" si="31"/>
+        <v>4.6097666666666663</v>
+      </c>
+      <c r="AB103" s="1">
         <f t="shared" si="25"/>
-        <v>5.0602999999999998</v>
-      </c>
-      <c r="Z103" s="1">
-        <f>AVERAGE(A103,I103,Q103)</f>
-        <v>6.0720333333333336</v>
-      </c>
-      <c r="AA103" s="1">
-        <f t="shared" si="28"/>
-        <v>4.6097666666666663</v>
-      </c>
-      <c r="AB103" s="1">
-        <f t="shared" si="22"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AC103" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.2937666666666665</v>
       </c>
       <c r="AD103" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.465933333333334</v>
       </c>
       <c r="AN103" s="1">
@@ -21462,7 +21462,7 @@
         <v>5</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.3102199999999993</v>
       </c>
       <c r="I104" s="1">
@@ -21481,7 +21481,7 @@
         <v>4.6906999999999996</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.8366799999999994</v>
       </c>
       <c r="Q104" s="1">
@@ -21500,27 +21500,27 @@
         <v>4.8666</v>
       </c>
       <c r="V104" s="1">
+        <f t="shared" si="28"/>
+        <v>5.1076999999999995</v>
+      </c>
+      <c r="Z104" s="1">
+        <f t="shared" si="32"/>
+        <v>6.2079666666666666</v>
+      </c>
+      <c r="AA104" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="AB104" s="1">
         <f t="shared" si="25"/>
-        <v>5.1076999999999995</v>
-      </c>
-      <c r="Z104" s="1">
-        <f>AVERAGE(A104,I104,Q104)</f>
-        <v>6.2079666666666666</v>
-      </c>
-      <c r="AA104" s="1">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="AB104" s="1">
-        <f t="shared" si="22"/>
         <v>6.6629000000000005</v>
       </c>
       <c r="AC104" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.7010333333333341</v>
       </c>
       <c r="AD104" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.8524333333333329</v>
       </c>
       <c r="AN104" s="1">
@@ -21556,7 +21556,7 @@
         <v>4.5664999999999996</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.3420800000000002</v>
       </c>
       <c r="I105" s="1">
@@ -21575,7 +21575,7 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.8603000000000005</v>
       </c>
       <c r="Q105" s="1">
@@ -21594,27 +21594,27 @@
         <v>10.061</v>
       </c>
       <c r="V105" s="1">
+        <f t="shared" si="28"/>
+        <v>5.2148200000000005</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="32"/>
+        <v>4.457066666666667</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="31"/>
+        <v>3.6347999999999998</v>
+      </c>
+      <c r="AB105" s="1">
         <f t="shared" si="25"/>
-        <v>5.2148200000000005</v>
-      </c>
-      <c r="Z105" s="1">
-        <f>AVERAGE(A105,I105,Q105)</f>
-        <v>4.457066666666667</v>
-      </c>
-      <c r="AA105" s="1">
-        <f t="shared" si="28"/>
-        <v>3.6347999999999998</v>
-      </c>
-      <c r="AB105" s="1">
-        <f t="shared" si="22"/>
         <v>7.3221666666666669</v>
       </c>
       <c r="AC105" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.7044333333333328</v>
       </c>
       <c r="AD105" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.5768666666666666</v>
       </c>
       <c r="AN105" s="1">
@@ -21650,7 +21650,7 @@
         <v>7.1670999999999996</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.3421400000000006</v>
       </c>
       <c r="I106" s="1">
@@ -21669,7 +21669,7 @@
         <v>18.953700000000001</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.8695199999999996</v>
       </c>
       <c r="Q106" s="1">
@@ -21688,27 +21688,27 @@
         <v>11.9665</v>
       </c>
       <c r="V106" s="1">
+        <f t="shared" si="28"/>
+        <v>5.3320400000000001</v>
+      </c>
+      <c r="Z106" s="1">
+        <f t="shared" si="32"/>
+        <v>4.3098333333333336</v>
+      </c>
+      <c r="AA106" s="1">
+        <f t="shared" si="31"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="AB106" s="1">
         <f t="shared" si="25"/>
-        <v>5.3320400000000001</v>
-      </c>
-      <c r="Z106" s="1">
-        <f>AVERAGE(A106,I106,Q106)</f>
-        <v>4.3098333333333336</v>
-      </c>
-      <c r="AA106" s="1">
-        <f t="shared" si="28"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="AB106" s="1">
-        <f t="shared" si="22"/>
         <v>7.1812666666666658</v>
       </c>
       <c r="AC106" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.63596666666666668</v>
       </c>
       <c r="AD106" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12.695766666666666</v>
       </c>
       <c r="AN106" s="1">
@@ -21744,7 +21744,7 @@
         <v>15.294700000000001</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.4785000000000004</v>
       </c>
       <c r="I107" s="1">
@@ -21763,7 +21763,7 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.9236799999999992</v>
       </c>
       <c r="Q107" s="1">
@@ -21782,27 +21782,27 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="V107" s="1">
+        <f t="shared" si="28"/>
+        <v>5.4437800000000003</v>
+      </c>
+      <c r="Z107" s="1">
+        <f t="shared" si="32"/>
+        <v>4.7512333333333334</v>
+      </c>
+      <c r="AA107" s="1">
+        <f t="shared" si="31"/>
+        <v>3.7100000000000004</v>
+      </c>
+      <c r="AB107" s="1">
         <f t="shared" si="25"/>
-        <v>5.4437800000000003</v>
-      </c>
-      <c r="Z107" s="1">
-        <f>AVERAGE(A107,I107,Q107)</f>
-        <v>4.7512333333333334</v>
-      </c>
-      <c r="AA107" s="1">
-        <f t="shared" si="28"/>
-        <v>3.7100000000000004</v>
-      </c>
-      <c r="AB107" s="1">
-        <f t="shared" si="22"/>
         <v>4.6030666666666669</v>
       </c>
       <c r="AC107" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.4086666666666665</v>
       </c>
       <c r="AD107" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.9369666666666667</v>
       </c>
       <c r="AN107" s="1">
@@ -21838,7 +21838,7 @@
         <v>5</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.5102199999999995</v>
       </c>
       <c r="I108" s="1">
@@ -21857,7 +21857,7 @@
         <v>4.8780000000000001</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.9302200000000003</v>
       </c>
       <c r="Q108" s="1">
@@ -21876,27 +21876,27 @@
         <v>18.953700000000001</v>
       </c>
       <c r="V108" s="1">
+        <f t="shared" si="28"/>
+        <v>5.56304</v>
+      </c>
+      <c r="Z108" s="1">
+        <f t="shared" si="32"/>
+        <v>2.4023666666666665</v>
+      </c>
+      <c r="AA108" s="1">
+        <f t="shared" si="31"/>
+        <v>1.1875666666666664</v>
+      </c>
+      <c r="AB108" s="1">
         <f t="shared" si="25"/>
-        <v>5.56304</v>
-      </c>
-      <c r="Z108" s="1">
-        <f>AVERAGE(A108,I108,Q108)</f>
-        <v>2.4023666666666665</v>
-      </c>
-      <c r="AA108" s="1">
-        <f t="shared" si="28"/>
-        <v>1.1875666666666664</v>
-      </c>
-      <c r="AB108" s="1">
-        <f t="shared" si="22"/>
         <v>12.528566666666665</v>
       </c>
       <c r="AC108" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.94340000000000002</v>
       </c>
       <c r="AD108" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.6105666666666671</v>
       </c>
       <c r="AN108" s="1">
@@ -21932,7 +21932,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.64832</v>
       </c>
       <c r="I109" s="1">
@@ -21951,7 +21951,7 @@
         <v>5.1031000000000004</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.0447800000000003</v>
       </c>
       <c r="Q109" s="1">
@@ -21970,27 +21970,27 @@
         <v>15.294700000000001</v>
       </c>
       <c r="V109" s="1">
+        <f t="shared" si="28"/>
+        <v>5.58786</v>
+      </c>
+      <c r="Z109" s="1">
+        <f t="shared" si="32"/>
+        <v>7.5753666666666666</v>
+      </c>
+      <c r="AA109" s="1">
+        <f t="shared" si="31"/>
+        <v>3.7887666666666671</v>
+      </c>
+      <c r="AB109" s="1">
         <f t="shared" si="25"/>
-        <v>5.58786</v>
-      </c>
-      <c r="Z109" s="1">
-        <f>AVERAGE(A109,I109,Q109)</f>
-        <v>7.5753666666666666</v>
-      </c>
-      <c r="AA109" s="1">
-        <f t="shared" si="28"/>
-        <v>3.7887666666666671</v>
-      </c>
-      <c r="AB109" s="1">
-        <f t="shared" si="22"/>
         <v>1.7010333333333334</v>
       </c>
       <c r="AC109" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.2646000000000006</v>
       </c>
       <c r="AD109" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.8051666666666666</v>
       </c>
       <c r="AN109" s="1">
@@ -22026,7 +22026,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.9093400000000003</v>
       </c>
       <c r="I110" s="1">
@@ -22045,7 +22045,7 @@
         <v>15.294700000000001</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.2629199999999994</v>
       </c>
       <c r="Q110" s="1">
@@ -22064,27 +22064,27 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="V110" s="1">
+        <f t="shared" si="28"/>
+        <v>5.64832</v>
+      </c>
+      <c r="Z110" s="1">
+        <f t="shared" si="32"/>
+        <v>5.650033333333333</v>
+      </c>
+      <c r="AA110" s="1">
+        <f t="shared" si="31"/>
+        <v>3.9231666666666669</v>
+      </c>
+      <c r="AB110" s="1">
         <f t="shared" si="25"/>
-        <v>5.64832</v>
-      </c>
-      <c r="Z110" s="1">
-        <f>AVERAGE(A110,I110,Q110)</f>
-        <v>5.650033333333333</v>
-      </c>
-      <c r="AA110" s="1">
-        <f t="shared" si="28"/>
-        <v>3.9231666666666669</v>
-      </c>
-      <c r="AB110" s="1">
-        <f t="shared" si="22"/>
         <v>3.0059</v>
       </c>
       <c r="AC110" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.3451666666666666</v>
       </c>
       <c r="AD110" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>11.110033333333334</v>
       </c>
       <c r="AN110" s="1">
@@ -22120,7 +22120,7 @@
         <v>18.953700000000001</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.9450000000000003</v>
       </c>
       <c r="I111" s="1">
@@ -22139,7 +22139,7 @@
         <v>5</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.3102199999999993</v>
       </c>
       <c r="Q111" s="1">
@@ -22158,27 +22158,27 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="V111" s="1">
+        <f t="shared" si="28"/>
+        <v>5.8215399999999997</v>
+      </c>
+      <c r="Z111" s="1">
+        <f t="shared" si="32"/>
+        <v>5.1924000000000001</v>
+      </c>
+      <c r="AA111" s="1">
+        <f t="shared" si="31"/>
+        <v>2.9674333333333336</v>
+      </c>
+      <c r="AB111" s="1">
         <f t="shared" si="25"/>
-        <v>5.8215399999999997</v>
-      </c>
-      <c r="Z111" s="1">
-        <f>AVERAGE(A111,I111,Q111)</f>
-        <v>5.1924000000000001</v>
-      </c>
-      <c r="AA111" s="1">
-        <f t="shared" si="28"/>
-        <v>2.9674333333333336</v>
-      </c>
-      <c r="AB111" s="1">
-        <f t="shared" si="22"/>
         <v>7.0919333333333334</v>
       </c>
       <c r="AC111" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.805566666666667</v>
       </c>
       <c r="AD111" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>10.403933333333333</v>
       </c>
       <c r="AN111" s="1">
@@ -22214,7 +22214,7 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.9651000000000005</v>
       </c>
       <c r="I112" s="1">
@@ -22233,7 +22233,7 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.33432</v>
       </c>
       <c r="Q112" s="1">
@@ -22252,27 +22252,27 @@
         <v>15.294700000000001</v>
       </c>
       <c r="V112" s="1">
+        <f t="shared" si="28"/>
+        <v>5.9334600000000002</v>
+      </c>
+      <c r="Z112" s="1">
+        <f t="shared" si="32"/>
+        <v>5.898533333333333</v>
+      </c>
+      <c r="AA112" s="1">
+        <f t="shared" si="31"/>
+        <v>4.4781000000000004</v>
+      </c>
+      <c r="AB112" s="1">
         <f t="shared" si="25"/>
-        <v>5.9334600000000002</v>
-      </c>
-      <c r="Z112" s="1">
-        <f>AVERAGE(A112,I112,Q112)</f>
-        <v>5.898533333333333</v>
-      </c>
-      <c r="AA112" s="1">
-        <f t="shared" si="28"/>
-        <v>4.4781000000000004</v>
-      </c>
-      <c r="AB112" s="1">
-        <f t="shared" si="22"/>
         <v>4.0415666666666672</v>
       </c>
       <c r="AC112" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.3662999999999998</v>
       </c>
       <c r="AD112" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.9369666666666667</v>
       </c>
       <c r="AN112" s="1">
@@ -22308,7 +22308,7 @@
         <v>11.9665</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.1988599999999998</v>
       </c>
       <c r="I113" s="1">
@@ -22327,7 +22327,7 @@
         <v>11.9665</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.5048200000000005</v>
       </c>
       <c r="Q113" s="1">
@@ -22346,27 +22346,27 @@
         <v>6</v>
       </c>
       <c r="V113" s="1">
+        <f t="shared" si="28"/>
+        <v>6.11022</v>
+      </c>
+      <c r="Z113" s="1">
+        <f t="shared" si="32"/>
+        <v>5.8935999999999993</v>
+      </c>
+      <c r="AA113" s="1">
+        <f t="shared" si="31"/>
+        <v>4.3980000000000006</v>
+      </c>
+      <c r="AB113" s="1">
         <f t="shared" si="25"/>
-        <v>6.11022</v>
-      </c>
-      <c r="Z113" s="1">
-        <f>AVERAGE(A113,I113,Q113)</f>
-        <v>5.8935999999999993</v>
-      </c>
-      <c r="AA113" s="1">
-        <f t="shared" si="28"/>
-        <v>4.3980000000000006</v>
-      </c>
-      <c r="AB113" s="1">
-        <f t="shared" si="22"/>
         <v>5.1196000000000002</v>
       </c>
       <c r="AC113" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.3009666666666666</v>
       </c>
       <c r="AD113" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.977666666666666</v>
       </c>
       <c r="AN113" s="1">
@@ -22402,7 +22402,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.2131599999999993</v>
       </c>
       <c r="I114" s="1">
@@ -22421,7 +22421,7 @@
         <v>5</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.5102199999999995</v>
       </c>
       <c r="Q114" s="1">
@@ -22440,27 +22440,27 @@
         <v>4.6794000000000002</v>
       </c>
       <c r="V114" s="1">
+        <f t="shared" si="28"/>
+        <v>6.1368200000000002</v>
+      </c>
+      <c r="Z114" s="1">
+        <f t="shared" si="32"/>
+        <v>5.6811333333333343</v>
+      </c>
+      <c r="AA114" s="1">
+        <f t="shared" si="31"/>
+        <v>4.7486333333333333</v>
+      </c>
+      <c r="AB114" s="1">
         <f t="shared" si="25"/>
-        <v>6.1368200000000002</v>
-      </c>
-      <c r="Z114" s="1">
-        <f>AVERAGE(A114,I114,Q114)</f>
-        <v>5.6811333333333343</v>
-      </c>
-      <c r="AA114" s="1">
-        <f t="shared" si="28"/>
+        <v>9.1784333333333326</v>
+      </c>
+      <c r="AC114" s="1">
+        <f t="shared" si="29"/>
         <v>4.7486333333333333</v>
       </c>
-      <c r="AB114" s="1">
-        <f t="shared" si="22"/>
-        <v>9.1784333333333326</v>
-      </c>
-      <c r="AC114" s="1">
-        <f t="shared" si="26"/>
-        <v>4.7486333333333333</v>
-      </c>
       <c r="AD114" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.4101666666666661</v>
       </c>
       <c r="AN114" s="1">
@@ -22496,7 +22496,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.2275200000000002</v>
       </c>
       <c r="I115" s="1">
@@ -22515,7 +22515,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="N115" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.6181799999999997</v>
       </c>
       <c r="Q115" s="1">
@@ -22534,27 +22534,27 @@
         <v>4.0952999999999999</v>
       </c>
       <c r="V115" s="1">
+        <f t="shared" si="28"/>
+        <v>6.2047799999999995</v>
+      </c>
+      <c r="Z115" s="1">
+        <f t="shared" si="32"/>
+        <v>5.6776333333333326</v>
+      </c>
+      <c r="AA115" s="1">
+        <f t="shared" si="31"/>
+        <v>4.2897666666666661</v>
+      </c>
+      <c r="AB115" s="1">
         <f t="shared" si="25"/>
-        <v>6.2047799999999995</v>
-      </c>
-      <c r="Z115" s="1">
-        <f>AVERAGE(A115,I115,Q115)</f>
-        <v>5.6776333333333326</v>
-      </c>
-      <c r="AA115" s="1">
-        <f t="shared" si="28"/>
-        <v>4.2897666666666661</v>
-      </c>
-      <c r="AB115" s="1">
-        <f t="shared" si="22"/>
         <v>8.1041333333333334</v>
       </c>
       <c r="AC115" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>6.2801</v>
       </c>
       <c r="AD115" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.732499999999999</v>
       </c>
       <c r="AN115" s="1">
@@ -22590,7 +22590,7 @@
         <v>11.9665</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.23536</v>
       </c>
       <c r="I116" s="1">
@@ -22609,7 +22609,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.64832</v>
       </c>
       <c r="Q116" s="1">
@@ -22628,27 +22628,27 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="V116" s="1">
+        <f t="shared" si="28"/>
+        <v>6.2131599999999993</v>
+      </c>
+      <c r="Z116" s="1">
+        <f t="shared" si="32"/>
+        <v>6.9678000000000004</v>
+      </c>
+      <c r="AA116" s="1">
+        <f t="shared" si="31"/>
+        <v>4.7867666666666668</v>
+      </c>
+      <c r="AB116" s="1">
         <f t="shared" si="25"/>
-        <v>6.2131599999999993</v>
-      </c>
-      <c r="Z116" s="1">
-        <f>AVERAGE(A116,I116,Q116)</f>
-        <v>6.9678000000000004</v>
-      </c>
-      <c r="AA116" s="1">
-        <f t="shared" si="28"/>
-        <v>4.7867666666666668</v>
-      </c>
-      <c r="AB116" s="1">
-        <f t="shared" si="22"/>
         <v>4.6725666666666665</v>
       </c>
       <c r="AC116" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.5558333333333332</v>
       </c>
       <c r="AD116" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.1784333333333326</v>
       </c>
       <c r="AN116" s="1">
@@ -22684,7 +22684,7 @@
         <v>0.2661</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.3781200000000009</v>
       </c>
       <c r="I117" s="1">
@@ -22703,7 +22703,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.6487999999999996</v>
       </c>
       <c r="Q117" s="1">
@@ -22722,27 +22722,27 @@
         <v>10.061</v>
       </c>
       <c r="V117" s="1">
+        <f t="shared" si="28"/>
+        <v>6.2205399999999997</v>
+      </c>
+      <c r="Z117" s="1">
+        <f t="shared" si="32"/>
+        <v>13.552533333333335</v>
+      </c>
+      <c r="AA117" s="1">
+        <f t="shared" si="31"/>
+        <v>2.4111666666666669</v>
+      </c>
+      <c r="AB117" s="1">
         <f t="shared" si="25"/>
-        <v>6.2205399999999997</v>
-      </c>
-      <c r="Z117" s="1">
-        <f>AVERAGE(A117,I117,Q117)</f>
-        <v>13.552533333333335</v>
-      </c>
-      <c r="AA117" s="1">
-        <f t="shared" si="28"/>
-        <v>2.4111666666666669</v>
-      </c>
-      <c r="AB117" s="1">
-        <f t="shared" si="22"/>
         <v>6.0118</v>
       </c>
       <c r="AC117" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.8108666666666671</v>
       </c>
       <c r="AD117" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.6260666666666665</v>
       </c>
       <c r="AN117" s="1">
@@ -22778,7 +22778,7 @@
         <v>5.5217000000000001</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.4295599999999995</v>
       </c>
       <c r="I118" s="1">
@@ -22797,7 +22797,7 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.8215399999999997</v>
       </c>
       <c r="Q118" s="1">
@@ -22816,26 +22816,26 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="V118" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6.2275200000000002</v>
       </c>
       <c r="Z118" s="1">
-        <f>AVERAGE(A118,I118,Q118)</f>
+        <f t="shared" si="32"/>
         <v>6.4436333333333335</v>
       </c>
       <c r="AA118" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6.0686999999999998</v>
       </c>
       <c r="AB118" s="1">
         <v>14.583</v>
       </c>
       <c r="AC118" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>6.0686999999999998</v>
       </c>
       <c r="AD118" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.4436333333333335</v>
       </c>
       <c r="AN118" s="1">
@@ -22871,7 +22871,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.7920199999999991</v>
       </c>
       <c r="I119" s="1">
@@ -22890,7 +22890,7 @@
         <v>11.9665</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.0781000000000001</v>
       </c>
       <c r="Q119" s="1">
@@ -22909,15 +22909,15 @@
         <v>0.2661</v>
       </c>
       <c r="V119" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6.4319200000000007</v>
       </c>
       <c r="Z119" s="1">
-        <f>AVERAGE(A119,I119,Q119)</f>
+        <f t="shared" si="32"/>
         <v>13.685166666666666</v>
       </c>
       <c r="AA119" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.3301333333333334</v>
       </c>
       <c r="AB119" s="1">
@@ -22925,11 +22925,11 @@
         <v>6.9947333333333335</v>
       </c>
       <c r="AC119" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.0766</v>
       </c>
       <c r="AD119" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.0834333333333346</v>
       </c>
       <c r="AN119" s="1">
@@ -22965,7 +22965,7 @@
         <v>11.9665</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.8016400000000008</v>
       </c>
       <c r="I120" s="1">
@@ -22984,7 +22984,7 @@
         <v>11.9665</v>
       </c>
       <c r="N120" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.2039800000000005</v>
       </c>
       <c r="Q120" s="1">
@@ -23003,15 +23003,15 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="V120" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6.668940000000001</v>
       </c>
       <c r="Z120" s="1">
-        <f>AVERAGE(A120,I120,Q120)</f>
+        <f t="shared" si="32"/>
         <v>4.8464999999999998</v>
       </c>
       <c r="AA120" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4.4788000000000006</v>
       </c>
       <c r="AB120" s="1">
@@ -23019,11 +23019,11 @@
         <v>7.8523666666666658</v>
       </c>
       <c r="AC120" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.6296999999999997</v>
       </c>
       <c r="AD120" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>10.983566666666666</v>
       </c>
       <c r="AN120" s="1">
@@ -23059,7 +23059,7 @@
         <v>0.56289999999999996</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.981679999999999</v>
       </c>
       <c r="I121" s="1">
@@ -23078,7 +23078,7 @@
         <v>6.5510999999999999</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.2275200000000002</v>
       </c>
       <c r="Q121" s="1">
@@ -23097,15 +23097,15 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="V121" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6.9200999999999997</v>
       </c>
       <c r="Z121" s="1">
-        <f>AVERAGE(A121,I121,Q121)</f>
+        <f t="shared" si="32"/>
         <v>4.0242666666666667</v>
       </c>
       <c r="AA121" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>5.2965666666666671</v>
       </c>
       <c r="AB121" s="1">
@@ -23113,11 +23113,11 @@
         <v>13.5542</v>
       </c>
       <c r="AC121" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5.2965666666666671</v>
       </c>
       <c r="AD121" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.3772333333333329</v>
       </c>
       <c r="AN121" s="1">
@@ -23153,7 +23153,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7.6320199999999998</v>
       </c>
       <c r="I122" s="1">
@@ -23172,7 +23172,7 @@
         <v>0.56289999999999996</v>
       </c>
       <c r="N122" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.5698799999999995</v>
       </c>
       <c r="Q122" s="1">
@@ -23191,26 +23191,26 @@
         <v>1.2399</v>
       </c>
       <c r="V122" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7.2543199999999981</v>
       </c>
       <c r="Z122" s="1">
-        <f>AVERAGE(A122,I122,Q122)</f>
+        <f t="shared" si="32"/>
         <v>3.9888333333333335</v>
       </c>
       <c r="AA122" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.3724333333333334</v>
       </c>
       <c r="AB122" s="1">
         <v>15.438000000000001</v>
       </c>
       <c r="AC122" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.5119666666666665</v>
       </c>
       <c r="AD122" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.6068333333333338</v>
       </c>
       <c r="AN122" s="1">
@@ -23246,7 +23246,7 @@
         <v>6.7835000000000001</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>8.0417799999999993</v>
       </c>
       <c r="I123" s="1">
@@ -23265,7 +23265,7 @@
         <v>5.5217000000000001</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.8106600000000004</v>
       </c>
       <c r="Q123" s="1">
@@ -23284,15 +23284,15 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="V123" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7.9740599999999997</v>
       </c>
       <c r="Z123" s="1">
-        <f>AVERAGE(A123,I123,Q123)</f>
+        <f t="shared" si="32"/>
         <v>6.6278333333333324</v>
       </c>
       <c r="AA123" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4.5319000000000003</v>
       </c>
       <c r="AB123" s="1">
@@ -23300,11 +23300,11 @@
         <v>15.222166666666666</v>
       </c>
       <c r="AC123" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.5546333333333333</v>
       </c>
       <c r="AD123" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.1076333333333324</v>
       </c>
       <c r="AN123" s="1">
@@ -23340,7 +23340,7 @@
         <v>7.7363</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>8.3456799999999998</v>
       </c>
       <c r="I124" s="1">
@@ -23359,7 +23359,7 @@
         <v>7.2580999999999998</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7.4756600000000004</v>
       </c>
       <c r="Q124" s="1">
@@ -23378,15 +23378,15 @@
         <v>6.7835000000000001</v>
       </c>
       <c r="V124" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8.0417799999999993</v>
       </c>
       <c r="Z124" s="1">
-        <f>AVERAGE(A124,I124,Q124)</f>
+        <f t="shared" si="32"/>
         <v>4.6125333333333334</v>
       </c>
       <c r="AA124" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.7131000000000003</v>
       </c>
       <c r="AB124" s="1">
@@ -23394,11 +23394,11 @@
         <v>20.282966666666667</v>
       </c>
       <c r="AC124" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.9039666666666668</v>
       </c>
       <c r="AD124" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.2592999999999996</v>
       </c>
       <c r="AN124" s="1">
@@ -23434,7 +23434,7 @@
         <v>11.9665</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>8.6050000000000004</v>
       </c>
       <c r="I125" s="1">
@@ -23453,7 +23453,7 @@
         <v>6.7835000000000001</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7.7052600000000009</v>
       </c>
       <c r="Q125" s="1">
@@ -23472,15 +23472,15 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="V125" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9.3670000000000009</v>
       </c>
       <c r="Z125" s="1">
-        <f>AVERAGE(A125,I125,Q125)</f>
+        <f t="shared" si="32"/>
         <v>7.0175333333333327</v>
       </c>
       <c r="AA125" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>5.4391999999999996</v>
       </c>
       <c r="AB125" s="1">
@@ -23488,11 +23488,11 @@
         <v>14.660666666666666</v>
       </c>
       <c r="AC125" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>6.4221333333333339</v>
       </c>
       <c r="AD125" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.2558999999999987</v>
       </c>
       <c r="AN125" s="1">
@@ -23528,7 +23528,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>9.4980200000000004</v>
       </c>
       <c r="I126" s="1">
@@ -23547,7 +23547,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="N126" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>9.4980200000000004</v>
       </c>
       <c r="Q126" s="1">
@@ -23566,7 +23566,7 @@
         <v>9.0176999999999996</v>
       </c>
       <c r="V126" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9.4980200000000004</v>
       </c>
     </row>
@@ -23636,8 +23636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC6B45-553F-42F9-AFA4-02E74AB8E853}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
